--- a/data/source/Giletto/Giletto-2020.xlsx
+++ b/data/source/Giletto/Giletto-2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Brian/UMN Google Drive/Research/Publications/Chapter 4/Version 2/MCM/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Brian/UMN Google Drive/Research/Publications/Chapter 4/Version 2/GitHub/cndc_bayesian_eval/data/source/Giletto/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CE657FB-B8AA-A142-8CD6-38C5EB319851}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9114D497-859C-3743-9791-2FC36EBC8B83}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16520" activeTab="1" xr2:uid="{F2A852AE-8183-7246-8EF8-49A80CAEBC9C}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16520" xr2:uid="{F2A852AE-8183-7246-8EF8-49A80CAEBC9C}"/>
   </bookViews>
   <sheets>
     <sheet name="Appendix A" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1429" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="37">
   <si>
     <r>
       <t>W</t>
@@ -185,9 +185,6 @@
   </si>
   <si>
     <t>*</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>ns</t>
@@ -414,6 +411,9 @@
   <si>
     <t>R.Burbank</t>
   </si>
+  <si>
+    <t>NA</t>
+  </si>
 </sst>
 </file>
 
@@ -552,7 +552,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -604,12 +604,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -619,13 +613,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -944,8 +950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27FD1DCC-029D-1545-99C9-A3E144FBEEE9}">
   <dimension ref="A1:AG79"/>
   <sheetViews>
-    <sheetView zoomScale="114" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:G4"/>
+    <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
+      <selection activeCell="S74" sqref="S74:AF74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -954,85 +960,85 @@
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
+      <c r="D1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
       <c r="M1" s="4"/>
-      <c r="N1" s="20" t="s">
+      <c r="N1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
       <c r="R1" s="4"/>
-      <c r="S1" s="19" t="s">
+      <c r="S1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
       <c r="W1" s="4"/>
-      <c r="X1" s="19" t="s">
+      <c r="X1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="Y1" s="19"/>
-      <c r="Z1" s="19"/>
-      <c r="AA1" s="19"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
       <c r="AB1" s="4"/>
-      <c r="AC1" s="19" t="s">
+      <c r="AC1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="AD1" s="19"/>
-      <c r="AE1" s="19"/>
-      <c r="AF1" s="19"/>
+      <c r="AD1" s="23"/>
+      <c r="AE1" s="23"/>
+      <c r="AF1" s="23"/>
       <c r="AG1" s="2"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
-      <c r="S2" s="18" t="s">
+      <c r="S2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="18"/>
+      <c r="T2" s="24"/>
+      <c r="U2" s="24"/>
+      <c r="V2" s="24"/>
       <c r="W2" s="1"/>
-      <c r="X2" s="18" t="s">
+      <c r="X2" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="Y2" s="18"/>
-      <c r="Z2" s="18"/>
-      <c r="AA2" s="18"/>
+      <c r="Y2" s="24"/>
+      <c r="Z2" s="24"/>
+      <c r="AA2" s="24"/>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
@@ -1180,43 +1186,43 @@
       <c r="R4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="S4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="T4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="U4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="V4" s="3" t="s">
-        <v>12</v>
+      <c r="S4" s="5">
+        <v>0</v>
+      </c>
+      <c r="T4" s="3">
+        <v>0</v>
+      </c>
+      <c r="U4" s="3">
+        <v>0</v>
+      </c>
+      <c r="V4" s="3">
+        <v>0</v>
       </c>
       <c r="W4" s="1"/>
-      <c r="X4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA4" s="3" t="s">
-        <v>12</v>
+      <c r="X4" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="18">
+        <v>0</v>
       </c>
       <c r="AB4" s="1"/>
       <c r="AC4" s="3" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="AD4" s="3" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="AE4" s="3" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="AF4" s="3" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="AG4" s="1"/>
     </row>
@@ -1284,7 +1290,7 @@
         <v>2</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X5" s="5">
         <v>1.1000000000000001</v>
@@ -1299,7 +1305,7 @@
         <v>1.3</v>
       </c>
       <c r="AB5" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC5" s="5">
         <v>0.77</v>
@@ -1314,7 +1320,7 @@
         <v>0.93</v>
       </c>
       <c r="AG5" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.2">
@@ -1351,7 +1357,7 @@
         <v>3.4</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N6" s="5">
         <v>0.92</v>
@@ -1448,7 +1454,7 @@
         <v>3.1</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N7" s="5">
         <v>0.64</v>
@@ -1463,7 +1469,7 @@
         <v>0.84</v>
       </c>
       <c r="R7" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S7" s="5">
         <v>5</v>
@@ -1478,7 +1484,7 @@
         <v>8.1</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X7" s="5">
         <v>0.8</v>
@@ -1493,7 +1499,7 @@
         <v>1.2</v>
       </c>
       <c r="AB7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC7" s="5">
         <v>0.84</v>
@@ -1508,7 +1514,7 @@
         <v>1.01</v>
       </c>
       <c r="AG7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:33" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1560,7 +1566,7 @@
         <v>0.8</v>
       </c>
       <c r="R8" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S8" s="13">
         <v>11.7</v>
@@ -1575,7 +1581,7 @@
         <v>16.100000000000001</v>
       </c>
       <c r="W8" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X8" s="13">
         <v>0.8</v>
@@ -1590,7 +1596,7 @@
         <v>1</v>
       </c>
       <c r="AB8" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC8" s="13">
         <v>0.86</v>
@@ -1605,13 +1611,13 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="AG8" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" s="12"/>
       <c r="B9" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" s="3">
         <v>55</v>
@@ -1674,7 +1680,7 @@
         <v>1</v>
       </c>
       <c r="W9" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X9" s="5">
         <v>1.2</v>
@@ -1689,7 +1695,7 @@
         <v>1.4</v>
       </c>
       <c r="AB9" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC9" s="5">
         <v>0.67</v>
@@ -1741,7 +1747,7 @@
         <v>5.2</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N10" s="5">
         <v>1.0900000000000001</v>
@@ -1935,7 +1941,7 @@
         <v>2</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N12" s="13">
         <v>0.53</v>
@@ -1950,7 +1956,7 @@
         <v>0.65</v>
       </c>
       <c r="R12" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S12" s="14">
         <v>11.6</v>
@@ -2001,7 +2007,7 @@
     <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A13" s="12"/>
       <c r="B13" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" s="3">
         <v>47</v>
@@ -2019,7 +2025,7 @@
         <v>2.8</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I13" s="5">
         <v>4.8</v>
@@ -2034,7 +2040,7 @@
         <v>5</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N13" s="5">
         <v>1.19</v>
@@ -2049,45 +2055,45 @@
         <v>1.27</v>
       </c>
       <c r="R13" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="S13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="T13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="U13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="V13" s="3" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="S13" s="22">
+        <v>0</v>
+      </c>
+      <c r="T13" s="18">
+        <v>0</v>
+      </c>
+      <c r="U13" s="18">
+        <v>0</v>
+      </c>
+      <c r="V13" s="18">
+        <v>0</v>
       </c>
       <c r="W13" s="1"/>
-      <c r="X13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA13" s="3" t="s">
-        <v>12</v>
+      <c r="X13" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="18">
+        <v>0</v>
       </c>
       <c r="AB13" s="1"/>
-      <c r="AC13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF13" s="3" t="s">
-        <v>12</v>
+      <c r="AC13" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD13" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE13" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF13" s="18" t="s">
+        <v>36</v>
       </c>
       <c r="AG13" s="1"/>
     </row>
@@ -2125,7 +2131,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N14" s="5">
         <v>1.1599999999999999</v>
@@ -2140,7 +2146,7 @@
         <v>1.39</v>
       </c>
       <c r="R14" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S14" s="5">
         <v>1.4</v>
@@ -2185,7 +2191,7 @@
         <v>1.24</v>
       </c>
       <c r="AG14" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.2">
@@ -2252,7 +2258,7 @@
         <v>5.7</v>
       </c>
       <c r="W15" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X15" s="5">
         <v>1.2</v>
@@ -2267,7 +2273,7 @@
         <v>1.6</v>
       </c>
       <c r="AB15" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC15" s="5">
         <v>0.88</v>
@@ -2282,7 +2288,7 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="AG15" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.2">
@@ -2349,7 +2355,7 @@
         <v>9.1</v>
       </c>
       <c r="W16" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X16" s="5">
         <v>1</v>
@@ -2461,7 +2467,7 @@
         <v>1</v>
       </c>
       <c r="AB17" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC17" s="13">
         <v>0.85</v>
@@ -2476,13 +2482,13 @@
         <v>1.29</v>
       </c>
       <c r="AG17" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A18" s="12"/>
       <c r="B18" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18" s="3">
         <v>45</v>
@@ -2515,7 +2521,7 @@
         <v>5.3</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N18" s="5">
         <v>0.97</v>
@@ -2530,45 +2536,45 @@
         <v>1.32</v>
       </c>
       <c r="R18" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="S18" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="T18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="U18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="V18" s="3" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="S18" s="22">
+        <v>0</v>
+      </c>
+      <c r="T18" s="18">
+        <v>0</v>
+      </c>
+      <c r="U18" s="18">
+        <v>0</v>
+      </c>
+      <c r="V18" s="18">
+        <v>0</v>
       </c>
       <c r="W18" s="1"/>
-      <c r="X18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA18" s="3" t="s">
-        <v>12</v>
+      <c r="X18" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="18">
+        <v>0</v>
       </c>
       <c r="AB18" s="1"/>
-      <c r="AC18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF18" s="3" t="s">
-        <v>12</v>
+      <c r="AC18" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD18" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE18" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF18" s="18" t="s">
+        <v>36</v>
       </c>
       <c r="AG18" s="1"/>
     </row>
@@ -2591,7 +2597,7 @@
         <v>5.4</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I19" s="5">
         <v>4</v>
@@ -2606,7 +2612,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N19" s="5">
         <v>1.17</v>
@@ -2636,7 +2642,7 @@
         <v>0.4</v>
       </c>
       <c r="W19" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X19" s="5">
         <v>1.7</v>
@@ -2651,7 +2657,7 @@
         <v>1.9</v>
       </c>
       <c r="AB19" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC19" s="5">
         <v>0.77</v>
@@ -2666,7 +2672,7 @@
         <v>0.97</v>
       </c>
       <c r="AG19" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.2">
@@ -2703,7 +2709,7 @@
         <v>4.2</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N20" s="5">
         <v>0.96</v>
@@ -2733,7 +2739,7 @@
         <v>3</v>
       </c>
       <c r="W20" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X20" s="5">
         <v>1.5</v>
@@ -2748,7 +2754,7 @@
         <v>1.8</v>
       </c>
       <c r="AB20" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC20" s="5">
         <v>1.05</v>
@@ -2763,7 +2769,7 @@
         <v>1.33</v>
       </c>
       <c r="AG20" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.2">
@@ -2830,7 +2836,7 @@
         <v>9.1</v>
       </c>
       <c r="W21" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X21" s="5">
         <v>1.3</v>
@@ -2845,7 +2851,7 @@
         <v>1.8</v>
       </c>
       <c r="AB21" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC21" s="5">
         <v>1</v>
@@ -2860,7 +2866,7 @@
         <v>1.61</v>
       </c>
       <c r="AG21" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:33" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -2897,7 +2903,7 @@
         <v>3.1</v>
       </c>
       <c r="M22" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N22" s="13">
         <v>0.57999999999999996</v>
@@ -2927,7 +2933,7 @@
         <v>13.4</v>
       </c>
       <c r="W22" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X22" s="13">
         <v>1.2</v>
@@ -2962,7 +2968,7 @@
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>10</v>
@@ -2983,7 +2989,7 @@
         <v>0.8</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I23" s="3">
         <v>3.8</v>
@@ -3015,43 +3021,43 @@
       <c r="R23" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="S23" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="T23" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="U23" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="V23" s="3" t="s">
-        <v>12</v>
+      <c r="S23" s="22">
+        <v>0</v>
+      </c>
+      <c r="T23" s="18">
+        <v>0</v>
+      </c>
+      <c r="U23" s="18">
+        <v>0</v>
+      </c>
+      <c r="V23" s="18">
+        <v>0</v>
       </c>
       <c r="W23" s="1"/>
-      <c r="X23" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y23" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z23" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA23" s="3" t="s">
-        <v>12</v>
+      <c r="X23" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="18">
+        <v>0</v>
       </c>
       <c r="AB23" s="1"/>
-      <c r="AC23" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD23" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE23" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF23" s="3" t="s">
-        <v>12</v>
+      <c r="AC23" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD23" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE23" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF23" s="18" t="s">
+        <v>36</v>
       </c>
       <c r="AG23" s="1"/>
     </row>
@@ -3089,7 +3095,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N24" s="5">
         <v>1.05</v>
@@ -3283,7 +3289,7 @@
         <v>3.1</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N26" s="5">
         <v>0.67</v>
@@ -3298,7 +3304,7 @@
         <v>1.08</v>
       </c>
       <c r="R26" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S26" s="5">
         <v>7.5</v>
@@ -3410,7 +3416,7 @@
         <v>16</v>
       </c>
       <c r="W27" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X27" s="13">
         <v>0.8</v>
@@ -3446,7 +3452,7 @@
     <row r="28" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C28" s="3">
         <v>55</v>
@@ -3464,7 +3470,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I28" s="3">
         <v>5.2</v>
@@ -3479,7 +3485,7 @@
         <v>5.8</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N28" s="5">
         <v>1.1200000000000001</v>
@@ -3496,43 +3502,43 @@
       <c r="R28" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="S28" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="T28" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="U28" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="V28" s="3" t="s">
-        <v>12</v>
+      <c r="S28" s="22">
+        <v>0</v>
+      </c>
+      <c r="T28" s="18">
+        <v>0</v>
+      </c>
+      <c r="U28" s="18">
+        <v>0</v>
+      </c>
+      <c r="V28" s="18">
+        <v>0</v>
       </c>
       <c r="W28" s="1"/>
-      <c r="X28" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y28" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z28" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA28" s="3" t="s">
-        <v>12</v>
+      <c r="X28" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="18">
+        <v>0</v>
       </c>
       <c r="AB28" s="1"/>
-      <c r="AC28" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD28" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE28" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF28" s="3" t="s">
-        <v>12</v>
+      <c r="AC28" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD28" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE28" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF28" s="18" t="s">
+        <v>36</v>
       </c>
       <c r="AG28" s="1"/>
     </row>
@@ -3555,7 +3561,7 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I29" s="3">
         <v>4.7</v>
@@ -3570,7 +3576,7 @@
         <v>5.2</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N29" s="5">
         <v>1.18</v>
@@ -3585,7 +3591,7 @@
         <v>1.4</v>
       </c>
       <c r="R29" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S29" s="5">
         <v>1.7</v>
@@ -3794,7 +3800,7 @@
         <v>15.2</v>
       </c>
       <c r="W31" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X31" s="13">
         <v>0.9</v>
@@ -3830,7 +3836,7 @@
     <row r="32" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C32" s="3">
         <v>47</v>
@@ -3848,7 +3854,7 @@
         <v>2.1</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I32" s="10">
         <v>4.5999999999999996</v>
@@ -3880,43 +3886,43 @@
       <c r="R32" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="S32" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="T32" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="U32" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="V32" s="3" t="s">
-        <v>12</v>
+      <c r="S32" s="22">
+        <v>0</v>
+      </c>
+      <c r="T32" s="18">
+        <v>0</v>
+      </c>
+      <c r="U32" s="18">
+        <v>0</v>
+      </c>
+      <c r="V32" s="18">
+        <v>0</v>
       </c>
       <c r="W32" s="1"/>
-      <c r="X32" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y32" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z32" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA32" s="3" t="s">
-        <v>12</v>
+      <c r="X32" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="18">
+        <v>0</v>
       </c>
       <c r="AB32" s="1"/>
-      <c r="AC32" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD32" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE32" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF32" s="3" t="s">
-        <v>12</v>
+      <c r="AC32" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD32" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE32" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF32" s="18" t="s">
+        <v>36</v>
       </c>
       <c r="AG32" s="1"/>
     </row>
@@ -3969,7 +3975,7 @@
         <v>1.35</v>
       </c>
       <c r="R33" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S33" s="5">
         <v>0.6</v>
@@ -4051,7 +4057,7 @@
         <v>5.2</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N34" s="5">
         <v>1.04</v>
@@ -4096,7 +4102,7 @@
         <v>2</v>
       </c>
       <c r="AB34" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC34" s="5">
         <v>0.99</v>
@@ -4111,7 +4117,7 @@
         <v>1.41</v>
       </c>
       <c r="AG34" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.2">
@@ -4148,7 +4154,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N35" s="5">
         <v>1.02</v>
@@ -4178,7 +4184,7 @@
         <v>10</v>
       </c>
       <c r="W35" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X35" s="5">
         <v>0.9</v>
@@ -4193,7 +4199,7 @@
         <v>1.4</v>
       </c>
       <c r="AB35" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC35" s="5">
         <v>0.73</v>
@@ -4208,7 +4214,7 @@
         <v>1.22</v>
       </c>
       <c r="AG35" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:33" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -4245,7 +4251,7 @@
         <v>4</v>
       </c>
       <c r="M36" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N36" s="13">
         <v>0.78</v>
@@ -4260,7 +4266,7 @@
         <v>1.34</v>
       </c>
       <c r="R36" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S36" s="14">
         <v>11.5</v>
@@ -4311,7 +4317,7 @@
     <row r="37" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C37" s="3">
         <v>45</v>
@@ -4329,7 +4335,7 @@
         <v>1.6</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I37" s="3">
         <v>5.0999999999999996</v>
@@ -4344,7 +4350,7 @@
         <v>5.5</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N37" s="5">
         <v>1.03</v>
@@ -4359,45 +4365,45 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="R37" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="S37" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="T37" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="U37" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="V37" s="3" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="S37" s="22">
+        <v>0</v>
+      </c>
+      <c r="T37" s="18">
+        <v>0</v>
+      </c>
+      <c r="U37" s="18">
+        <v>0</v>
+      </c>
+      <c r="V37" s="18">
+        <v>0</v>
       </c>
       <c r="W37" s="1"/>
-      <c r="X37" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y37" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z37" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA37" s="3" t="s">
-        <v>12</v>
+      <c r="X37" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="18">
+        <v>0</v>
       </c>
       <c r="AB37" s="1"/>
-      <c r="AC37" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD37" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE37" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF37" s="3" t="s">
-        <v>12</v>
+      <c r="AC37" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD37" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE37" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF37" s="18" t="s">
+        <v>36</v>
       </c>
       <c r="AG37" s="1"/>
     </row>
@@ -4420,7 +4426,7 @@
         <v>5.4</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I38" s="3">
         <v>5.0999999999999996</v>
@@ -4435,7 +4441,7 @@
         <v>5.7</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N38" s="5">
         <v>1.31</v>
@@ -4450,45 +4456,45 @@
         <v>1.56</v>
       </c>
       <c r="R38" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="S38" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="T38" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="U38" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="V38" s="3" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="S38" s="22">
+        <v>0</v>
+      </c>
+      <c r="T38" s="18">
+        <v>0</v>
+      </c>
+      <c r="U38" s="18">
+        <v>0</v>
+      </c>
+      <c r="V38" s="18">
+        <v>0</v>
       </c>
       <c r="W38" s="1"/>
-      <c r="X38" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y38" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z38" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA38" s="3" t="s">
-        <v>12</v>
+      <c r="X38" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="18">
+        <v>0</v>
       </c>
       <c r="AB38" s="1"/>
-      <c r="AC38" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD38" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE38" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF38" s="3" t="s">
-        <v>12</v>
+      <c r="AC38" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD38" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE38" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF38" s="18" t="s">
+        <v>36</v>
       </c>
       <c r="AG38" s="1"/>
     </row>
@@ -4511,7 +4517,7 @@
         <v>7.7</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I39" s="3">
         <v>4.0999999999999996</v>
@@ -4586,7 +4592,7 @@
         <v>1.34</v>
       </c>
       <c r="AG39" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:33" x14ac:dyDescent="0.2">
@@ -4638,7 +4644,7 @@
         <v>1.37</v>
       </c>
       <c r="R40" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S40" s="5">
         <v>7.2</v>
@@ -4653,7 +4659,7 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="W40" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X40" s="5">
         <v>1.2</v>
@@ -4705,7 +4711,7 @@
         <v>3.5</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I41" s="7">
         <v>2.7</v>
@@ -4720,7 +4726,7 @@
         <v>3.5</v>
       </c>
       <c r="M41" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N41" s="13">
         <v>0.61</v>
@@ -4735,7 +4741,7 @@
         <v>0.89</v>
       </c>
       <c r="R41" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S41" s="13">
         <v>9.6999999999999993</v>
@@ -4750,7 +4756,7 @@
         <v>11.4</v>
       </c>
       <c r="W41" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X41" s="13">
         <v>1.4</v>
@@ -4785,10 +4791,10 @@
     </row>
     <row r="42" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C42" s="3">
         <v>55</v>
@@ -4806,7 +4812,7 @@
         <v>2.4</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I42" s="11">
         <v>4.5</v>
@@ -4851,7 +4857,7 @@
         <v>1</v>
       </c>
       <c r="W42" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X42" s="5">
         <v>1.6</v>
@@ -4866,7 +4872,7 @@
         <v>1.9</v>
       </c>
       <c r="AB42" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC42" s="5">
         <v>0.91</v>
@@ -4881,7 +4887,7 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="AG42" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:33" x14ac:dyDescent="0.2">
@@ -4948,7 +4954,7 @@
         <v>2.7</v>
       </c>
       <c r="W43" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X43" s="5">
         <v>1.3</v>
@@ -5157,7 +5163,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="AB45" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC45" s="13">
         <v>0.71</v>
@@ -5172,13 +5178,13 @@
         <v>1.21</v>
       </c>
       <c r="AG45" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A46" s="12"/>
       <c r="B46" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C46" s="3">
         <v>47</v>
@@ -5196,7 +5202,7 @@
         <v>2.4</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I46" s="5">
         <v>5</v>
@@ -5211,7 +5217,7 @@
         <v>5.4</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N46" s="5">
         <v>1.0900000000000001</v>
@@ -5226,45 +5232,45 @@
         <v>1.22</v>
       </c>
       <c r="R46" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="S46" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="T46" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="U46" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="V46" s="3" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="S46" s="22">
+        <v>0</v>
+      </c>
+      <c r="T46" s="18">
+        <v>0</v>
+      </c>
+      <c r="U46" s="18">
+        <v>0</v>
+      </c>
+      <c r="V46" s="18">
+        <v>0</v>
       </c>
       <c r="W46" s="1"/>
-      <c r="X46" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y46" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z46" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA46" s="3" t="s">
-        <v>12</v>
+      <c r="X46" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="18">
+        <v>0</v>
       </c>
       <c r="AB46" s="1"/>
-      <c r="AC46" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD46" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE46" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF46" s="3" t="s">
-        <v>12</v>
+      <c r="AC46" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD46" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE46" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF46" s="18" t="s">
+        <v>36</v>
       </c>
       <c r="AG46" s="1"/>
     </row>
@@ -5302,7 +5308,7 @@
         <v>5</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N47" s="5">
         <v>0.94</v>
@@ -5317,7 +5323,7 @@
         <v>1.25</v>
       </c>
       <c r="R47" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S47" s="3">
         <v>0.8</v>
@@ -5347,7 +5353,7 @@
         <v>1.7</v>
       </c>
       <c r="AB47" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC47" s="5">
         <v>0.92</v>
@@ -5362,7 +5368,7 @@
         <v>1.24</v>
       </c>
       <c r="AG47" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:33" x14ac:dyDescent="0.2">
@@ -5444,7 +5450,7 @@
         <v>1.3</v>
       </c>
       <c r="AB48" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC48" s="5">
         <v>0.83</v>
@@ -5459,7 +5465,7 @@
         <v>1.07</v>
       </c>
       <c r="AG48" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:33" x14ac:dyDescent="0.2">
@@ -5593,7 +5599,7 @@
         <v>2.8</v>
       </c>
       <c r="M50" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N50" s="13">
         <v>0.66</v>
@@ -5608,7 +5614,7 @@
         <v>0.82</v>
       </c>
       <c r="R50" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S50" s="13">
         <v>13.9</v>
@@ -5659,7 +5665,7 @@
     <row r="51" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A51" s="12"/>
       <c r="B51" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C51" s="3">
         <v>45</v>
@@ -5677,7 +5683,7 @@
         <v>1.8</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I51" s="5">
         <v>4.5999999999999996</v>
@@ -5692,7 +5698,7 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N51" s="5">
         <v>0.91</v>
@@ -5707,45 +5713,45 @@
         <v>1.05</v>
       </c>
       <c r="R51" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="S51" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="T51" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="U51" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="V51" s="3" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="S51" s="22">
+        <v>0</v>
+      </c>
+      <c r="T51" s="18">
+        <v>0</v>
+      </c>
+      <c r="U51" s="18">
+        <v>0</v>
+      </c>
+      <c r="V51" s="18">
+        <v>0</v>
       </c>
       <c r="W51" s="1"/>
-      <c r="X51" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y51" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z51" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA51" s="3" t="s">
-        <v>12</v>
+      <c r="X51" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="18">
+        <v>0</v>
       </c>
       <c r="AB51" s="1"/>
-      <c r="AC51" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD51" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE51" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF51" s="3" t="s">
-        <v>12</v>
+      <c r="AC51" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD51" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE51" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF51" s="18" t="s">
+        <v>36</v>
       </c>
       <c r="AG51" s="1"/>
     </row>
@@ -5768,7 +5774,7 @@
         <v>5.9</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I52" s="5">
         <v>5</v>
@@ -5783,7 +5789,7 @@
         <v>5.7</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N52" s="5">
         <v>1.19</v>
@@ -5798,7 +5804,7 @@
         <v>1.5</v>
       </c>
       <c r="R52" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S52" s="5">
         <v>0.4</v>
@@ -5813,7 +5819,7 @@
         <v>0.5</v>
       </c>
       <c r="W52" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X52" s="5">
         <v>2.4</v>
@@ -5843,7 +5849,7 @@
         <v>1.55</v>
       </c>
       <c r="AG52" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" spans="1:33" x14ac:dyDescent="0.2">
@@ -5910,7 +5916,7 @@
         <v>2.8</v>
       </c>
       <c r="W53" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X53" s="5">
         <v>1.9</v>
@@ -5925,7 +5931,7 @@
         <v>2</v>
       </c>
       <c r="AB53" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC53" s="5">
         <v>0.88</v>
@@ -5940,7 +5946,7 @@
         <v>1.48</v>
       </c>
       <c r="AG53" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" spans="1:33" x14ac:dyDescent="0.2">
@@ -6007,7 +6013,7 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="W54" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X54" s="5">
         <v>1.5</v>
@@ -6022,7 +6028,7 @@
         <v>1.7</v>
       </c>
       <c r="AB54" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC54" s="5">
         <v>0.87</v>
@@ -6037,7 +6043,7 @@
         <v>1.1100000000000001</v>
       </c>
       <c r="AG54" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" spans="1:33" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -6074,7 +6080,7 @@
         <v>2.5</v>
       </c>
       <c r="M55" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N55" s="13">
         <v>0.47</v>
@@ -6089,7 +6095,7 @@
         <v>0.68</v>
       </c>
       <c r="R55" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S55" s="13">
         <v>9.4</v>
@@ -6104,7 +6110,7 @@
         <v>11.5</v>
       </c>
       <c r="W55" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X55" s="13">
         <v>1.3</v>
@@ -6139,7 +6145,7 @@
     </row>
     <row r="56" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A56" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>10</v>
@@ -6160,7 +6166,7 @@
         <v>0.5</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I56" s="5">
         <v>4.9000000000000004</v>
@@ -6190,45 +6196,45 @@
         <v>0.8</v>
       </c>
       <c r="R56" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="S56" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="T56" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="U56" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="V56" s="3" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="S56" s="22">
+        <v>0</v>
+      </c>
+      <c r="T56" s="18">
+        <v>0</v>
+      </c>
+      <c r="U56" s="18">
+        <v>0</v>
+      </c>
+      <c r="V56" s="18">
+        <v>0</v>
       </c>
       <c r="W56" s="1"/>
-      <c r="X56" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y56" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z56" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA56" s="3" t="s">
-        <v>12</v>
+      <c r="X56" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y56" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z56" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA56" s="18">
+        <v>0</v>
       </c>
       <c r="AB56" s="1"/>
-      <c r="AC56" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD56" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE56" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF56" s="3" t="s">
-        <v>12</v>
+      <c r="AC56" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD56" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE56" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF56" s="18" t="s">
+        <v>36</v>
       </c>
       <c r="AG56" s="1"/>
     </row>
@@ -6266,7 +6272,7 @@
         <v>4.7</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N57" s="5">
         <v>0.8</v>
@@ -6281,7 +6287,7 @@
         <v>0.94</v>
       </c>
       <c r="R57" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S57" s="5">
         <v>0.2</v>
@@ -6311,7 +6317,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="AB57" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC57" s="5">
         <v>0.75</v>
@@ -6326,7 +6332,7 @@
         <v>1.33</v>
       </c>
       <c r="AG57" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" spans="1:33" x14ac:dyDescent="0.2">
@@ -6520,7 +6526,7 @@
         <v>1.06</v>
       </c>
       <c r="AG59" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:33" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -6602,7 +6608,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="AB60" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC60" s="13">
         <v>0.8</v>
@@ -6617,13 +6623,13 @@
         <v>0.95</v>
       </c>
       <c r="AG60" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
       <c r="B61" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C61" s="3">
         <v>55</v>
@@ -6671,7 +6677,7 @@
         <v>1.2</v>
       </c>
       <c r="R61" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S61" s="3">
         <v>0.2</v>
@@ -6686,7 +6692,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="W61" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X61" s="3">
         <v>2.2000000000000002</v>
@@ -6701,7 +6707,7 @@
         <v>3.1</v>
       </c>
       <c r="AB61" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC61" s="5">
         <v>1.04</v>
@@ -6716,7 +6722,7 @@
         <v>1.9</v>
       </c>
       <c r="AG61" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" spans="1:33" x14ac:dyDescent="0.2">
@@ -6753,7 +6759,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N62" s="5">
         <v>1.06</v>
@@ -6768,7 +6774,7 @@
         <v>1.22</v>
       </c>
       <c r="R62" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S62" s="3">
         <v>0.3</v>
@@ -6992,7 +6998,7 @@
         <v>1.3</v>
       </c>
       <c r="AB64" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC64" s="13">
         <v>1.01</v>
@@ -7007,13 +7013,13 @@
         <v>1.25</v>
       </c>
       <c r="AG64" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A65" s="12"/>
       <c r="B65" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C65" s="3">
         <v>47</v>
@@ -7031,7 +7037,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I65" s="5">
         <v>4.8</v>
@@ -7046,7 +7052,7 @@
         <v>5.3</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N65" s="5">
         <v>1.06</v>
@@ -7063,43 +7069,43 @@
       <c r="R65" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="S65" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="T65" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="U65" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="V65" s="3" t="s">
-        <v>12</v>
+      <c r="S65" s="22">
+        <v>0</v>
+      </c>
+      <c r="T65" s="18">
+        <v>0</v>
+      </c>
+      <c r="U65" s="18">
+        <v>0</v>
+      </c>
+      <c r="V65" s="18">
+        <v>0</v>
       </c>
       <c r="W65" s="1"/>
-      <c r="X65" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y65" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z65" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA65" s="3" t="s">
-        <v>12</v>
+      <c r="X65" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="18">
+        <v>0</v>
       </c>
       <c r="AB65" s="1"/>
-      <c r="AC65" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD65" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE65" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF65" s="3" t="s">
-        <v>12</v>
+      <c r="AC65" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD65" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE65" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF65" s="18" t="s">
+        <v>36</v>
       </c>
       <c r="AG65" s="1"/>
     </row>
@@ -7182,7 +7188,7 @@
         <v>2</v>
       </c>
       <c r="AB66" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC66" s="5">
         <v>0.89</v>
@@ -7197,7 +7203,7 @@
         <v>1.25</v>
       </c>
       <c r="AG66" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" spans="1:33" x14ac:dyDescent="0.2">
@@ -7234,7 +7240,7 @@
         <v>4.8</v>
       </c>
       <c r="M67" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N67" s="5">
         <v>1.06</v>
@@ -7249,7 +7255,7 @@
         <v>1.35</v>
       </c>
       <c r="R67" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S67" s="5">
         <v>2.2999999999999998</v>
@@ -7331,7 +7337,7 @@
         <v>4.2</v>
       </c>
       <c r="M68" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N68" s="5">
         <v>1</v>
@@ -7346,7 +7352,7 @@
         <v>1.32</v>
       </c>
       <c r="R68" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S68" s="5">
         <v>7.3</v>
@@ -7376,7 +7382,7 @@
         <v>1.3</v>
       </c>
       <c r="AB68" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC68" s="5">
         <v>0.97</v>
@@ -7391,7 +7397,7 @@
         <v>1.25</v>
       </c>
       <c r="AG68" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" spans="1:33" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -7428,7 +7434,7 @@
         <v>4.3</v>
       </c>
       <c r="M69" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N69" s="13">
         <v>0.75</v>
@@ -7443,7 +7449,7 @@
         <v>1.45</v>
       </c>
       <c r="R69" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S69" s="14">
         <v>12.6</v>
@@ -7493,10 +7499,10 @@
     </row>
     <row r="70" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A70" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C70" s="3">
         <v>55</v>
@@ -7514,7 +7520,7 @@
         <v>4.2</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I70" s="5">
         <v>4.9000000000000004</v>
@@ -7529,7 +7535,7 @@
         <v>5.5</v>
       </c>
       <c r="M70" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N70" s="5">
         <v>1.1299999999999999</v>
@@ -7544,7 +7550,7 @@
         <v>1.34</v>
       </c>
       <c r="R70" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S70" s="5">
         <v>0.1</v>
@@ -7559,7 +7565,7 @@
         <v>0.2</v>
       </c>
       <c r="W70" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X70" s="5">
         <v>2.6</v>
@@ -7574,7 +7580,7 @@
         <v>3.1</v>
       </c>
       <c r="AB70" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC70" s="5">
         <v>0.9</v>
@@ -7671,7 +7677,7 @@
         <v>2.1</v>
       </c>
       <c r="AB71" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC71" s="5">
         <v>0.85</v>
@@ -7686,7 +7692,7 @@
         <v>1.17</v>
       </c>
       <c r="AG71" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" spans="1:33" x14ac:dyDescent="0.2">
@@ -7723,7 +7729,7 @@
         <v>4</v>
       </c>
       <c r="M72" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N72" s="5">
         <v>0.91</v>
@@ -7738,7 +7744,7 @@
         <v>1.21</v>
       </c>
       <c r="R72" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S72" s="11">
         <v>3.5</v>
@@ -7820,7 +7826,7 @@
         <v>3.2</v>
       </c>
       <c r="M73" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N73" s="13">
         <v>0.62</v>
@@ -7835,7 +7841,7 @@
         <v>0.99</v>
       </c>
       <c r="R73" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S73" s="14">
         <v>7</v>
@@ -7880,13 +7886,13 @@
         <v>1.27</v>
       </c>
       <c r="AG73" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A74" s="12"/>
       <c r="B74" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C74" s="3">
         <v>47</v>
@@ -7934,45 +7940,45 @@
         <v>1.2</v>
       </c>
       <c r="R74" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="S74" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="T74" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="U74" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="V74" s="3" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="S74" s="22">
+        <v>0</v>
+      </c>
+      <c r="T74" s="18">
+        <v>0</v>
+      </c>
+      <c r="U74" s="18">
+        <v>0</v>
+      </c>
+      <c r="V74" s="18">
+        <v>0</v>
       </c>
       <c r="W74" s="1"/>
-      <c r="X74" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y74" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z74" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA74" s="3" t="s">
-        <v>12</v>
+      <c r="X74" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="18">
+        <v>0</v>
       </c>
       <c r="AB74" s="1"/>
-      <c r="AC74" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD74" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE74" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF74" s="3" t="s">
-        <v>12</v>
+      <c r="AC74" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD74" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE74" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF74" s="18" t="s">
+        <v>36</v>
       </c>
       <c r="AG74" s="1"/>
     </row>
@@ -7995,7 +8001,7 @@
         <v>4</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I75" s="5">
         <v>4.8</v>
@@ -8010,7 +8016,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="M75" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N75" s="5">
         <v>1.1100000000000001</v>
@@ -8025,7 +8031,7 @@
         <v>1.23</v>
       </c>
       <c r="R75" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S75" s="5">
         <v>0.7</v>
@@ -8055,7 +8061,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="AB75" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC75" s="5">
         <v>0.76</v>
@@ -8070,7 +8076,7 @@
         <v>1.17</v>
       </c>
       <c r="AG75" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" spans="1:33" x14ac:dyDescent="0.2">
@@ -8122,7 +8128,7 @@
         <v>1.29</v>
       </c>
       <c r="R76" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S76" s="5">
         <v>2.9</v>
@@ -8137,7 +8143,7 @@
         <v>3.6</v>
       </c>
       <c r="W76" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X76" s="5">
         <v>1.6</v>
@@ -8152,7 +8158,7 @@
         <v>2</v>
       </c>
       <c r="AB76" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC76" s="5">
         <v>0.97</v>
@@ -8167,7 +8173,7 @@
         <v>1.26</v>
       </c>
       <c r="AG76" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" spans="1:33" x14ac:dyDescent="0.2">
@@ -8301,7 +8307,7 @@
         <v>3.5</v>
       </c>
       <c r="M78" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N78" s="13">
         <v>0.71</v>
@@ -8366,7 +8372,7 @@
     </row>
     <row r="79" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A79" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -8390,8 +8396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9715491D-A5C5-8446-A047-ADE1A3E18A70}">
   <dimension ref="A1:AG81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C84" sqref="C84"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U14" sqref="U14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8399,86 +8405,86 @@
     <row r="1" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="24" t="s">
+      <c r="C1" s="19"/>
+      <c r="D1" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="20" t="s">
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="20" t="s">
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
-      <c r="X1" s="20" t="s">
+      <c r="Y1" s="25"/>
+      <c r="Z1" s="25"/>
+      <c r="AA1" s="25"/>
+      <c r="AB1" s="19"/>
+      <c r="AC1" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="Y1" s="20"/>
-      <c r="Z1" s="20"/>
-      <c r="AA1" s="20"/>
-      <c r="AB1" s="21"/>
-      <c r="AC1" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="20"/>
-      <c r="AE1" s="20"/>
-      <c r="AF1" s="20"/>
+      <c r="AD1" s="25"/>
+      <c r="AE1" s="25"/>
+      <c r="AF1" s="25"/>
       <c r="AG1" s="4"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" s="12"/>
       <c r="B2" s="12"/>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
       <c r="M2" s="12"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
       <c r="Q2" s="12"/>
       <c r="R2" s="12"/>
-      <c r="S2" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="T2" s="25"/>
-      <c r="U2" s="25"/>
+      <c r="S2" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
       <c r="V2" s="12"/>
       <c r="W2" s="12"/>
-      <c r="X2" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" s="25"/>
-      <c r="Z2" s="25"/>
-      <c r="AA2" s="25"/>
+      <c r="X2" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="26"/>
       <c r="AB2" s="12"/>
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
@@ -8504,7 +8510,7 @@
       <c r="G3" s="13">
         <v>250</v>
       </c>
-      <c r="H3" s="23"/>
+      <c r="H3" s="21"/>
       <c r="I3" s="13">
         <v>0</v>
       </c>
@@ -8517,7 +8523,7 @@
       <c r="L3" s="13">
         <v>250</v>
       </c>
-      <c r="M3" s="23"/>
+      <c r="M3" s="21"/>
       <c r="N3" s="13">
         <v>0</v>
       </c>
@@ -8530,7 +8536,7 @@
       <c r="Q3" s="13">
         <v>250</v>
       </c>
-      <c r="R3" s="23"/>
+      <c r="R3" s="21"/>
       <c r="S3" s="13">
         <v>0</v>
       </c>
@@ -8543,7 +8549,7 @@
       <c r="V3" s="13">
         <v>250</v>
       </c>
-      <c r="W3" s="23"/>
+      <c r="W3" s="21"/>
       <c r="X3" s="13">
         <v>0</v>
       </c>
@@ -8556,7 +8562,7 @@
       <c r="AA3" s="13">
         <v>250</v>
       </c>
-      <c r="AB3" s="23"/>
+      <c r="AB3" s="21"/>
       <c r="AC3" s="13">
         <v>0</v>
       </c>
@@ -8569,14 +8575,14 @@
       <c r="AF3" s="13">
         <v>250</v>
       </c>
-      <c r="AG3" s="23"/>
+      <c r="AG3" s="21"/>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="20" t="s">
         <v>31</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>32</v>
       </c>
       <c r="C4" s="5">
         <v>44</v>
@@ -8588,7 +8594,7 @@
         <v>0.4</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="G4" s="5">
         <v>0.3</v>
@@ -8602,8 +8608,8 @@
       <c r="J4" s="5">
         <v>6.4</v>
       </c>
-      <c r="K4" s="5" t="s">
-        <v>12</v>
+      <c r="K4" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="L4" s="5">
         <v>6.5</v>
@@ -8617,8 +8623,8 @@
       <c r="O4" s="5">
         <v>0.9</v>
       </c>
-      <c r="P4" s="5" t="s">
-        <v>12</v>
+      <c r="P4" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="Q4" s="5">
         <v>0.88</v>
@@ -8626,43 +8632,43 @@
       <c r="R4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="S4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="T4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="U4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="V4" s="5" t="s">
-        <v>12</v>
+      <c r="S4" s="5">
+        <v>0</v>
+      </c>
+      <c r="T4" s="5">
+        <v>0</v>
+      </c>
+      <c r="U4" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="V4" s="5">
+        <v>0</v>
       </c>
       <c r="W4" s="12"/>
-      <c r="X4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA4" s="5" t="s">
-        <v>12</v>
+      <c r="X4" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA4" s="22">
+        <v>0</v>
       </c>
       <c r="AB4" s="12"/>
-      <c r="AC4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF4" s="5" t="s">
-        <v>12</v>
+      <c r="AC4" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD4" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE4" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF4" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="AG4" s="12"/>
     </row>
@@ -8679,13 +8685,13 @@
         <v>0.8</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="G5" s="5">
         <v>1.1000000000000001</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I5" s="5">
         <v>4.7</v>
@@ -8693,8 +8699,8 @@
       <c r="J5" s="5">
         <v>6</v>
       </c>
-      <c r="K5" s="5" t="s">
-        <v>12</v>
+      <c r="K5" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="L5" s="5">
         <v>6</v>
@@ -8708,8 +8714,8 @@
       <c r="O5" s="5">
         <v>1.03</v>
       </c>
-      <c r="P5" s="5" t="s">
-        <v>12</v>
+      <c r="P5" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="Q5" s="5">
         <v>1.1399999999999999</v>
@@ -8717,43 +8723,43 @@
       <c r="R5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="S5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="T5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="U5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="V5" s="5" t="s">
-        <v>12</v>
+      <c r="S5" s="5">
+        <v>0</v>
+      </c>
+      <c r="T5" s="5">
+        <v>0</v>
+      </c>
+      <c r="U5" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="V5" s="5">
+        <v>0</v>
       </c>
       <c r="W5" s="12"/>
-      <c r="X5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA5" s="5" t="s">
-        <v>12</v>
+      <c r="X5" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA5" s="22">
+        <v>0</v>
       </c>
       <c r="AB5" s="12"/>
-      <c r="AC5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF5" s="5" t="s">
-        <v>12</v>
+      <c r="AC5" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD5" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE5" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF5" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="AG5" s="12"/>
     </row>
@@ -8770,13 +8776,13 @@
         <v>1.4</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="G6" s="5">
         <v>1.8</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I6" s="5">
         <v>4.0999999999999996</v>
@@ -8784,8 +8790,8 @@
       <c r="J6" s="5">
         <v>5.3</v>
       </c>
-      <c r="K6" s="5" t="s">
-        <v>12</v>
+      <c r="K6" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="L6" s="5">
         <v>5.8</v>
@@ -8799,8 +8805,8 @@
       <c r="O6" s="5">
         <v>1.07</v>
       </c>
-      <c r="P6" s="5" t="s">
-        <v>12</v>
+      <c r="P6" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="Q6" s="5">
         <v>1.25</v>
@@ -8814,8 +8820,8 @@
       <c r="T6" s="5">
         <v>0.2</v>
       </c>
-      <c r="U6" s="5" t="s">
-        <v>12</v>
+      <c r="U6" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="V6" s="5">
         <v>0.2</v>
@@ -8829,14 +8835,14 @@
       <c r="Y6" s="5">
         <v>1.9</v>
       </c>
-      <c r="Z6" s="5" t="s">
-        <v>12</v>
+      <c r="Z6" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="AA6" s="5">
         <v>1.9</v>
       </c>
       <c r="AB6" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC6" s="5">
         <v>0.87</v>
@@ -8844,14 +8850,14 @@
       <c r="AD6" s="5">
         <v>0.82</v>
       </c>
-      <c r="AE6" s="5" t="s">
-        <v>12</v>
+      <c r="AE6" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="AF6" s="5">
         <v>0.81</v>
       </c>
       <c r="AG6" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.2">
@@ -8867,13 +8873,13 @@
         <v>2.1</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="G7" s="5">
         <v>1.9</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I7" s="5">
         <v>4.5</v>
@@ -8881,14 +8887,14 @@
       <c r="J7" s="5">
         <v>4.8</v>
       </c>
-      <c r="K7" s="5" t="s">
-        <v>12</v>
+      <c r="K7" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="L7" s="5">
         <v>5.3</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N7" s="5">
         <v>0.89</v>
@@ -8896,8 +8902,8 @@
       <c r="O7" s="5">
         <v>1.08</v>
       </c>
-      <c r="P7" s="5" t="s">
-        <v>12</v>
+      <c r="P7" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="Q7" s="5">
         <v>1.17</v>
@@ -8911,8 +8917,8 @@
       <c r="T7" s="11">
         <v>1</v>
       </c>
-      <c r="U7" s="5" t="s">
-        <v>12</v>
+      <c r="U7" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="V7" s="5">
         <v>0.8</v>
@@ -8926,14 +8932,14 @@
       <c r="Y7" s="11">
         <v>1.6</v>
       </c>
-      <c r="Z7" s="5" t="s">
-        <v>12</v>
+      <c r="Z7" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="AA7" s="5">
         <v>1.8</v>
       </c>
       <c r="AB7" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC7" s="5">
         <v>0.8</v>
@@ -8941,14 +8947,14 @@
       <c r="AD7" s="5">
         <v>0.98</v>
       </c>
-      <c r="AE7" s="5" t="s">
-        <v>12</v>
+      <c r="AE7" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="AF7" s="5">
         <v>1.01</v>
       </c>
       <c r="AG7" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.2">
@@ -8964,7 +8970,7 @@
         <v>3.6</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="G8" s="5">
         <v>4.9000000000000004</v>
@@ -8978,14 +8984,14 @@
       <c r="J8" s="11">
         <v>3.9</v>
       </c>
-      <c r="K8" s="5" t="s">
-        <v>12</v>
+      <c r="K8" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="L8" s="5">
         <v>4.5999999999999996</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N8" s="5">
         <v>0.79</v>
@@ -8993,8 +8999,8 @@
       <c r="O8" s="5">
         <v>1.06</v>
       </c>
-      <c r="P8" s="5" t="s">
-        <v>12</v>
+      <c r="P8" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="Q8" s="5">
         <v>1.33</v>
@@ -9008,8 +9014,8 @@
       <c r="T8" s="11">
         <v>3.2</v>
       </c>
-      <c r="U8" s="5" t="s">
-        <v>12</v>
+      <c r="U8" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="V8" s="5">
         <v>2.7</v>
@@ -9023,8 +9029,8 @@
       <c r="Y8" s="11">
         <v>1.3</v>
       </c>
-      <c r="Z8" s="5" t="s">
-        <v>12</v>
+      <c r="Z8" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="AA8" s="5">
         <v>1.6</v>
@@ -9038,8 +9044,8 @@
       <c r="AD8" s="5">
         <v>1</v>
       </c>
-      <c r="AE8" s="5" t="s">
-        <v>12</v>
+      <c r="AE8" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="AF8" s="5">
         <v>1.18</v>
@@ -9061,7 +9067,7 @@
         <v>2.8</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="G9" s="5">
         <v>4.9000000000000004</v>
@@ -9075,8 +9081,8 @@
       <c r="J9" s="11">
         <v>3.8</v>
       </c>
-      <c r="K9" s="5" t="s">
-        <v>12</v>
+      <c r="K9" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="L9" s="5">
         <v>4.4000000000000004</v>
@@ -9090,8 +9096,8 @@
       <c r="O9" s="5">
         <v>0.93</v>
       </c>
-      <c r="P9" s="5" t="s">
-        <v>12</v>
+      <c r="P9" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="Q9" s="5">
         <v>1.25</v>
@@ -9105,8 +9111,8 @@
       <c r="T9" s="11">
         <v>2.7</v>
       </c>
-      <c r="U9" s="5" t="s">
-        <v>12</v>
+      <c r="U9" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="V9" s="5">
         <v>3.2</v>
@@ -9120,14 +9126,14 @@
       <c r="Y9" s="11">
         <v>1.4</v>
       </c>
-      <c r="Z9" s="5" t="s">
-        <v>12</v>
+      <c r="Z9" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="AA9" s="5">
         <v>1.5</v>
       </c>
       <c r="AB9" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC9" s="5">
         <v>0.9</v>
@@ -9135,8 +9141,8 @@
       <c r="AD9" s="5">
         <v>1.07</v>
       </c>
-      <c r="AE9" s="5" t="s">
-        <v>12</v>
+      <c r="AE9" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="AF9" s="5">
         <v>1.1299999999999999</v>
@@ -9158,7 +9164,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="G10" s="5">
         <v>4.3</v>
@@ -9172,8 +9178,8 @@
       <c r="J10" s="11">
         <v>3.8</v>
       </c>
-      <c r="K10" s="5" t="s">
-        <v>12</v>
+      <c r="K10" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="L10" s="5">
         <v>4.5</v>
@@ -9187,8 +9193,8 @@
       <c r="O10" s="5">
         <v>1.05</v>
       </c>
-      <c r="P10" s="5" t="s">
-        <v>12</v>
+      <c r="P10" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="Q10" s="5">
         <v>1.26</v>
@@ -9202,14 +9208,14 @@
       <c r="T10" s="5">
         <v>4.9000000000000004</v>
       </c>
-      <c r="U10" s="5" t="s">
-        <v>12</v>
+      <c r="U10" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="V10" s="5">
         <v>3.9</v>
       </c>
       <c r="W10" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X10" s="5">
         <v>1</v>
@@ -9217,8 +9223,8 @@
       <c r="Y10" s="5">
         <v>1.2</v>
       </c>
-      <c r="Z10" s="5" t="s">
-        <v>12</v>
+      <c r="Z10" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="AA10" s="5">
         <v>1.5</v>
@@ -9232,14 +9238,14 @@
       <c r="AD10" s="5">
         <v>1.01</v>
       </c>
-      <c r="AE10" s="5" t="s">
-        <v>12</v>
+      <c r="AE10" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="AF10" s="5">
         <v>1.19</v>
       </c>
       <c r="AG10" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.2">
@@ -9255,7 +9261,7 @@
         <v>4.8</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="G11" s="5">
         <v>6.6</v>
@@ -9269,8 +9275,8 @@
       <c r="J11" s="11">
         <v>3.6</v>
       </c>
-      <c r="K11" s="5" t="s">
-        <v>12</v>
+      <c r="K11" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="L11" s="5">
         <v>4</v>
@@ -9284,8 +9290,8 @@
       <c r="O11" s="5">
         <v>0.91</v>
       </c>
-      <c r="P11" s="5" t="s">
-        <v>12</v>
+      <c r="P11" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="Q11" s="5">
         <v>1.24</v>
@@ -9299,8 +9305,8 @@
       <c r="T11" s="5">
         <v>7.5</v>
       </c>
-      <c r="U11" s="5" t="s">
-        <v>12</v>
+      <c r="U11" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="V11" s="5">
         <v>6.5</v>
@@ -9314,8 +9320,8 @@
       <c r="Y11" s="5">
         <v>1.4</v>
       </c>
-      <c r="Z11" s="5" t="s">
-        <v>12</v>
+      <c r="Z11" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="AA11" s="5">
         <v>1.4</v>
@@ -9329,8 +9335,8 @@
       <c r="AD11" s="5">
         <v>1.26</v>
       </c>
-      <c r="AE11" s="5" t="s">
-        <v>12</v>
+      <c r="AE11" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="AF11" s="5">
         <v>1.26</v>
@@ -9352,7 +9358,7 @@
         <v>2.6</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="G12" s="5">
         <v>3.9</v>
@@ -9366,8 +9372,8 @@
       <c r="J12" s="5">
         <v>2.5</v>
       </c>
-      <c r="K12" s="5" t="s">
-        <v>12</v>
+      <c r="K12" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="L12" s="5">
         <v>3.2</v>
@@ -9381,14 +9387,14 @@
       <c r="O12" s="5">
         <v>0.63</v>
       </c>
-      <c r="P12" s="5" t="s">
-        <v>12</v>
+      <c r="P12" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="Q12" s="5">
         <v>0.85</v>
       </c>
       <c r="R12" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S12" s="5">
         <v>6.9</v>
@@ -9396,14 +9402,14 @@
       <c r="T12" s="5">
         <v>6.4</v>
       </c>
-      <c r="U12" s="5" t="s">
-        <v>12</v>
+      <c r="U12" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="V12" s="5">
         <v>6.1</v>
       </c>
       <c r="W12" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X12" s="5">
         <v>1</v>
@@ -9411,8 +9417,8 @@
       <c r="Y12" s="5">
         <v>1.3</v>
       </c>
-      <c r="Z12" s="5" t="s">
-        <v>12</v>
+      <c r="Z12" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="AA12" s="5">
         <v>1.8</v>
@@ -9426,8 +9432,8 @@
       <c r="AD12" s="5">
         <v>1.1599999999999999</v>
       </c>
-      <c r="AE12" s="5" t="s">
-        <v>12</v>
+      <c r="AE12" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="AF12" s="5">
         <v>1.6</v>
@@ -9449,13 +9455,13 @@
         <v>3.1</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="G13" s="13">
         <v>4.2</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I13" s="13">
         <v>1.9</v>
@@ -9464,7 +9470,7 @@
         <v>2.1</v>
       </c>
       <c r="K13" s="13" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="L13" s="13">
         <v>3.2</v>
@@ -9479,7 +9485,7 @@
         <v>0.51</v>
       </c>
       <c r="P13" s="13" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="Q13" s="13">
         <v>0.88</v>
@@ -9494,13 +9500,13 @@
         <v>8.1</v>
       </c>
       <c r="U13" s="13" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="V13" s="13">
         <v>8.3000000000000007</v>
       </c>
       <c r="W13" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X13" s="13">
         <v>0.9</v>
@@ -9509,7 +9515,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="Z13" s="13" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="AA13" s="13">
         <v>1.6</v>
@@ -9524,7 +9530,7 @@
         <v>1</v>
       </c>
       <c r="AE13" s="13" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="AF13" s="13">
         <v>1.52</v>
@@ -9535,8 +9541,8 @@
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A14" s="12"/>
-      <c r="B14" s="22" t="s">
-        <v>33</v>
+      <c r="B14" s="20" t="s">
+        <v>32</v>
       </c>
       <c r="C14" s="5">
         <v>41</v>
@@ -9548,13 +9554,13 @@
         <v>0.4</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="G14" s="5">
         <v>0.3</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I14" s="5">
         <v>5</v>
@@ -9562,8 +9568,8 @@
       <c r="J14" s="5">
         <v>6.1</v>
       </c>
-      <c r="K14" s="5" t="s">
-        <v>12</v>
+      <c r="K14" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="L14" s="5">
         <v>6.6</v>
@@ -9577,8 +9583,8 @@
       <c r="O14" s="5">
         <v>0.84</v>
       </c>
-      <c r="P14" s="5" t="s">
-        <v>12</v>
+      <c r="P14" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="Q14" s="5">
         <v>0.9</v>
@@ -9586,43 +9592,43 @@
       <c r="R14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="S14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="T14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="U14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="V14" s="5" t="s">
-        <v>12</v>
+      <c r="S14" s="22">
+        <v>0</v>
+      </c>
+      <c r="T14" s="22">
+        <v>0</v>
+      </c>
+      <c r="U14" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="V14" s="22">
+        <v>0</v>
       </c>
       <c r="W14" s="12"/>
-      <c r="X14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA14" s="5" t="s">
-        <v>12</v>
+      <c r="X14" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA14" s="22">
+        <v>0</v>
       </c>
       <c r="AB14" s="12"/>
-      <c r="AC14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF14" s="5" t="s">
-        <v>12</v>
+      <c r="AC14" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD14" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE14" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF14" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="AG14" s="12"/>
     </row>
@@ -9639,7 +9645,7 @@
         <v>0.8</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="G15" s="5">
         <v>1</v>
@@ -9653,8 +9659,8 @@
       <c r="J15" s="5">
         <v>5.7</v>
       </c>
-      <c r="K15" s="5" t="s">
-        <v>12</v>
+      <c r="K15" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="L15" s="5">
         <v>5.8</v>
@@ -9668,8 +9674,8 @@
       <c r="O15" s="5">
         <v>0.98</v>
       </c>
-      <c r="P15" s="5" t="s">
-        <v>12</v>
+      <c r="P15" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="Q15" s="5">
         <v>1.08</v>
@@ -9677,43 +9683,43 @@
       <c r="R15" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="S15" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="T15" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="U15" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="V15" s="5" t="s">
-        <v>12</v>
+      <c r="S15" s="22">
+        <v>0</v>
+      </c>
+      <c r="T15" s="22">
+        <v>0</v>
+      </c>
+      <c r="U15" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="V15" s="22">
+        <v>0</v>
       </c>
       <c r="W15" s="12"/>
-      <c r="X15" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y15" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z15" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA15" s="5" t="s">
-        <v>12</v>
+      <c r="X15" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA15" s="22">
+        <v>0</v>
       </c>
       <c r="AB15" s="12"/>
-      <c r="AC15" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD15" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE15" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF15" s="5" t="s">
-        <v>12</v>
+      <c r="AC15" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD15" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE15" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF15" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="AG15" s="12"/>
     </row>
@@ -9730,7 +9736,7 @@
         <v>1.4</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="G16" s="5">
         <v>2.2999999999999998</v>
@@ -9744,8 +9750,8 @@
       <c r="J16" s="11">
         <v>5</v>
       </c>
-      <c r="K16" s="5" t="s">
-        <v>12</v>
+      <c r="K16" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="L16" s="5">
         <v>5.0999999999999996</v>
@@ -9759,8 +9765,8 @@
       <c r="O16" s="5">
         <v>1.17</v>
       </c>
-      <c r="P16" s="5" t="s">
-        <v>12</v>
+      <c r="P16" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="Q16" s="5">
         <v>1.1299999999999999</v>
@@ -9774,8 +9780,8 @@
       <c r="T16" s="5">
         <v>0.8</v>
       </c>
-      <c r="U16" s="5" t="s">
-        <v>12</v>
+      <c r="U16" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="V16" s="5">
         <v>0.3</v>
@@ -9789,14 +9795,14 @@
       <c r="Y16" s="5">
         <v>1.7</v>
       </c>
-      <c r="Z16" s="5" t="s">
-        <v>12</v>
+      <c r="Z16" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="AA16" s="5">
         <v>1.8</v>
       </c>
       <c r="AB16" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC16" s="5">
         <v>0.66</v>
@@ -9804,8 +9810,8 @@
       <c r="AD16" s="5">
         <v>1</v>
       </c>
-      <c r="AE16" s="5" t="s">
-        <v>12</v>
+      <c r="AE16" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="AF16" s="5">
         <v>0.88</v>
@@ -9827,7 +9833,7 @@
         <v>1.8</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="G17" s="5">
         <v>2.2000000000000002</v>
@@ -9841,8 +9847,8 @@
       <c r="J17" s="11">
         <v>4.8</v>
       </c>
-      <c r="K17" s="5" t="s">
-        <v>12</v>
+      <c r="K17" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="L17" s="5">
         <v>5.5</v>
@@ -9856,8 +9862,8 @@
       <c r="O17" s="5">
         <v>1.0900000000000001</v>
       </c>
-      <c r="P17" s="5" t="s">
-        <v>12</v>
+      <c r="P17" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="Q17" s="5">
         <v>1.25</v>
@@ -9871,8 +9877,8 @@
       <c r="T17" s="5">
         <v>0.6</v>
       </c>
-      <c r="U17" s="5" t="s">
-        <v>12</v>
+      <c r="U17" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="V17" s="5">
         <v>0.7</v>
@@ -9886,8 +9892,8 @@
       <c r="Y17" s="5">
         <v>1.8</v>
       </c>
-      <c r="Z17" s="5" t="s">
-        <v>12</v>
+      <c r="Z17" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="AA17" s="5">
         <v>1.6</v>
@@ -9901,8 +9907,8 @@
       <c r="AD17" s="5">
         <v>1.01</v>
       </c>
-      <c r="AE17" s="5" t="s">
-        <v>12</v>
+      <c r="AE17" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="AF17" s="5">
         <v>0.93</v>
@@ -9924,7 +9930,7 @@
         <v>2.8</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="G18" s="5">
         <v>2.5</v>
@@ -9938,8 +9944,8 @@
       <c r="J18" s="11">
         <v>4.2</v>
       </c>
-      <c r="K18" s="5" t="s">
-        <v>12</v>
+      <c r="K18" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="L18" s="5">
         <v>5.4</v>
@@ -9953,8 +9959,8 @@
       <c r="O18" s="5">
         <v>1.1399999999999999</v>
       </c>
-      <c r="P18" s="5" t="s">
-        <v>12</v>
+      <c r="P18" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="Q18" s="5">
         <v>1.27</v>
@@ -9968,14 +9974,14 @@
       <c r="T18" s="5">
         <v>2</v>
       </c>
-      <c r="U18" s="5" t="s">
-        <v>12</v>
+      <c r="U18" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="V18" s="5">
         <v>1.3</v>
       </c>
       <c r="W18" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X18" s="5">
         <v>1</v>
@@ -9983,8 +9989,8 @@
       <c r="Y18" s="5">
         <v>1.5</v>
       </c>
-      <c r="Z18" s="5" t="s">
-        <v>12</v>
+      <c r="Z18" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="AA18" s="5">
         <v>1.6</v>
@@ -9998,8 +10004,8 @@
       <c r="AD18" s="5">
         <v>1.05</v>
       </c>
-      <c r="AE18" s="5" t="s">
-        <v>12</v>
+      <c r="AE18" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="AF18" s="5">
         <v>1</v>
@@ -10021,7 +10027,7 @@
         <v>2.5</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="G19" s="5">
         <v>3.7</v>
@@ -10035,8 +10041,8 @@
       <c r="J19" s="11">
         <v>4.0999999999999996</v>
       </c>
-      <c r="K19" s="5" t="s">
-        <v>12</v>
+      <c r="K19" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="L19" s="5">
         <v>5</v>
@@ -10050,8 +10056,8 @@
       <c r="O19" s="5">
         <v>0.97</v>
       </c>
-      <c r="P19" s="5" t="s">
-        <v>12</v>
+      <c r="P19" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="Q19" s="5">
         <v>1.31</v>
@@ -10065,8 +10071,8 @@
       <c r="T19" s="11">
         <v>3.2</v>
       </c>
-      <c r="U19" s="5" t="s">
-        <v>12</v>
+      <c r="U19" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="V19" s="5">
         <v>3</v>
@@ -10080,8 +10086,8 @@
       <c r="Y19" s="11">
         <v>1.3</v>
       </c>
-      <c r="Z19" s="5" t="s">
-        <v>12</v>
+      <c r="Z19" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="AA19" s="5">
         <v>1.4</v>
@@ -10095,8 +10101,8 @@
       <c r="AD19" s="5">
         <v>1.01</v>
       </c>
-      <c r="AE19" s="5" t="s">
-        <v>12</v>
+      <c r="AE19" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="AF19" s="5">
         <v>1.04</v>
@@ -10118,13 +10124,13 @@
         <v>3.7</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="G20" s="5">
         <v>4.8</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I20" s="5">
         <v>2.2000000000000002</v>
@@ -10132,8 +10138,8 @@
       <c r="J20" s="5">
         <v>3.4</v>
       </c>
-      <c r="K20" s="5" t="s">
-        <v>12</v>
+      <c r="K20" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="L20" s="5">
         <v>4.7</v>
@@ -10147,8 +10153,8 @@
       <c r="O20" s="5">
         <v>0.91</v>
       </c>
-      <c r="P20" s="5" t="s">
-        <v>12</v>
+      <c r="P20" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="Q20" s="5">
         <v>1.34</v>
@@ -10162,14 +10168,14 @@
       <c r="T20" s="11">
         <v>4.9000000000000004</v>
       </c>
-      <c r="U20" s="5" t="s">
-        <v>12</v>
+      <c r="U20" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="V20" s="5">
         <v>5.7</v>
       </c>
       <c r="W20" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X20" s="5">
         <v>0.7</v>
@@ -10177,8 +10183,8 @@
       <c r="Y20" s="11">
         <v>1.2</v>
       </c>
-      <c r="Z20" s="5" t="s">
-        <v>12</v>
+      <c r="Z20" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="AA20" s="5">
         <v>1.5</v>
@@ -10192,8 +10198,8 @@
       <c r="AD20" s="5">
         <v>0.98</v>
       </c>
-      <c r="AE20" s="5" t="s">
-        <v>12</v>
+      <c r="AE20" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="AF20" s="5">
         <v>1.27</v>
@@ -10215,13 +10221,13 @@
         <v>2.5</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="G21" s="5">
         <v>3.6</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I21" s="5">
         <v>1.9</v>
@@ -10229,8 +10235,8 @@
       <c r="J21" s="5">
         <v>2.1</v>
       </c>
-      <c r="K21" s="5" t="s">
-        <v>12</v>
+      <c r="K21" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="L21" s="5">
         <v>3.1</v>
@@ -10244,8 +10250,8 @@
       <c r="O21" s="5">
         <v>0.47</v>
       </c>
-      <c r="P21" s="5" t="s">
-        <v>12</v>
+      <c r="P21" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="Q21" s="5">
         <v>0.81</v>
@@ -10259,14 +10265,14 @@
       <c r="T21" s="5">
         <v>6.6</v>
       </c>
-      <c r="U21" s="5" t="s">
-        <v>12</v>
+      <c r="U21" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="V21" s="5">
         <v>8.3000000000000007</v>
       </c>
       <c r="W21" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X21" s="5">
         <v>0.9</v>
@@ -10274,14 +10280,14 @@
       <c r="Y21" s="5">
         <v>1</v>
       </c>
-      <c r="Z21" s="5" t="s">
-        <v>12</v>
+      <c r="Z21" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="AA21" s="5">
         <v>1.4</v>
       </c>
       <c r="AB21" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC21" s="5">
         <v>0.79</v>
@@ -10289,14 +10295,14 @@
       <c r="AD21" s="5">
         <v>0.93</v>
       </c>
-      <c r="AE21" s="5" t="s">
-        <v>12</v>
+      <c r="AE21" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="AF21" s="5">
         <v>1.3</v>
       </c>
       <c r="AG21" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.2">
@@ -10312,7 +10318,7 @@
         <v>3.2</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="G22" s="5">
         <v>4.5999999999999996</v>
@@ -10326,8 +10332,8 @@
       <c r="J22" s="5">
         <v>2.5</v>
       </c>
-      <c r="K22" s="5" t="s">
-        <v>12</v>
+      <c r="K22" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="L22" s="5">
         <v>3</v>
@@ -10341,8 +10347,8 @@
       <c r="O22" s="5">
         <v>0.63</v>
       </c>
-      <c r="P22" s="5" t="s">
-        <v>12</v>
+      <c r="P22" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="Q22" s="5">
         <v>0.85</v>
@@ -10356,8 +10362,8 @@
       <c r="T22" s="11">
         <v>8.8000000000000007</v>
       </c>
-      <c r="U22" s="5" t="s">
-        <v>12</v>
+      <c r="U22" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="V22" s="5">
         <v>10.7</v>
@@ -10371,8 +10377,8 @@
       <c r="Y22" s="11">
         <v>1.1000000000000001</v>
       </c>
-      <c r="Z22" s="5" t="s">
-        <v>12</v>
+      <c r="Z22" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="AA22" s="5">
         <v>1.7</v>
@@ -10386,8 +10392,8 @@
       <c r="AD22" s="5">
         <v>1.02</v>
       </c>
-      <c r="AE22" s="5" t="s">
-        <v>12</v>
+      <c r="AE22" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="AF22" s="5">
         <v>1.65</v>
@@ -10409,7 +10415,7 @@
         <v>3.2</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="G23" s="13">
         <v>3.2</v>
@@ -10424,7 +10430,7 @@
         <v>2</v>
       </c>
       <c r="K23" s="13" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="L23" s="13">
         <v>2.8</v>
@@ -10439,7 +10445,7 @@
         <v>0.49</v>
       </c>
       <c r="P23" s="13" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="Q23" s="13">
         <v>0.71</v>
@@ -10454,7 +10460,7 @@
         <v>12</v>
       </c>
       <c r="U23" s="13" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="V23" s="13">
         <v>9.4</v>
@@ -10469,7 +10475,7 @@
         <v>1</v>
       </c>
       <c r="Z23" s="13" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="AA23" s="13">
         <v>1.5</v>
@@ -10484,7 +10490,7 @@
         <v>1.27</v>
       </c>
       <c r="AE23" s="13" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="AF23" s="13">
         <v>1.46</v>
@@ -10495,8 +10501,8 @@
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A24" s="12"/>
-      <c r="B24" s="22" t="s">
-        <v>34</v>
+      <c r="B24" s="20" t="s">
+        <v>33</v>
       </c>
       <c r="C24" s="5">
         <v>40</v>
@@ -10514,7 +10520,7 @@
         <v>0.3</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I24" s="5">
         <v>5.2</v>
@@ -10546,43 +10552,43 @@
       <c r="R24" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="S24" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="T24" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="U24" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="V24" s="5" t="s">
-        <v>12</v>
+      <c r="S24" s="22">
+        <v>0</v>
+      </c>
+      <c r="T24" s="22">
+        <v>0</v>
+      </c>
+      <c r="U24" s="22">
+        <v>0</v>
+      </c>
+      <c r="V24" s="22">
+        <v>0</v>
       </c>
       <c r="W24" s="12"/>
-      <c r="X24" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y24" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z24" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA24" s="5" t="s">
-        <v>12</v>
+      <c r="X24" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="22">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="22">
+        <v>0</v>
       </c>
       <c r="AB24" s="12"/>
-      <c r="AC24" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD24" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE24" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF24" s="5" t="s">
-        <v>12</v>
+      <c r="AC24" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD24" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE24" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF24" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="AG24" s="12"/>
     </row>
@@ -10605,7 +10611,7 @@
         <v>0.4</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I25" s="5">
         <v>4.7</v>
@@ -10635,45 +10641,45 @@
         <v>0.86</v>
       </c>
       <c r="R25" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="S25" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="T25" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="U25" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="V25" s="5" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="S25" s="22">
+        <v>0</v>
+      </c>
+      <c r="T25" s="22">
+        <v>0</v>
+      </c>
+      <c r="U25" s="22">
+        <v>0</v>
+      </c>
+      <c r="V25" s="22">
+        <v>0</v>
       </c>
       <c r="W25" s="12"/>
-      <c r="X25" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y25" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z25" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA25" s="5" t="s">
-        <v>12</v>
+      <c r="X25" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="22">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="22">
+        <v>0</v>
       </c>
       <c r="AB25" s="12"/>
-      <c r="AC25" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD25" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE25" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF25" s="5" t="s">
-        <v>12</v>
+      <c r="AC25" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD25" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE25" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF25" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="AG25" s="12"/>
     </row>
@@ -10696,7 +10702,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I26" s="5">
         <v>4.5</v>
@@ -10726,7 +10732,7 @@
         <v>1.05</v>
       </c>
       <c r="R26" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S26" s="5">
         <v>0.2</v>
@@ -10741,7 +10747,7 @@
         <v>0.2</v>
       </c>
       <c r="W26" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X26" s="5">
         <v>2.1</v>
@@ -10756,7 +10762,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="AB26" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC26" s="5">
         <v>0.92</v>
@@ -10771,7 +10777,7 @@
         <v>0.92</v>
       </c>
       <c r="AG26" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.2">
@@ -10793,7 +10799,7 @@
         <v>1.7</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I27" s="5">
         <v>4.5</v>
@@ -10823,7 +10829,7 @@
         <v>1.26</v>
       </c>
       <c r="R27" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S27" s="5">
         <v>1.8</v>
@@ -10838,7 +10844,7 @@
         <v>1</v>
       </c>
       <c r="W27" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X27" s="5">
         <v>1.3</v>
@@ -10853,7 +10859,7 @@
         <v>1.5</v>
       </c>
       <c r="AB27" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC27" s="5">
         <v>0.87</v>
@@ -10868,7 +10874,7 @@
         <v>0.94</v>
       </c>
       <c r="AG27" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.2">
@@ -10890,7 +10896,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I28" s="5">
         <v>3.9</v>
@@ -11084,7 +11090,7 @@
         <v>3.2</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I30" s="5">
         <v>3.5</v>
@@ -11129,7 +11135,7 @@
         <v>4.7</v>
       </c>
       <c r="W30" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X30" s="5">
         <v>1</v>
@@ -11358,8 +11364,8 @@
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A33" s="12"/>
-      <c r="B33" s="22" t="s">
-        <v>35</v>
+      <c r="B33" s="20" t="s">
+        <v>34</v>
       </c>
       <c r="C33" s="5">
         <v>32</v>
@@ -11377,7 +11383,7 @@
         <v>0.2</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I33" s="5">
         <v>6.6</v>
@@ -11407,45 +11413,45 @@
         <v>0.82</v>
       </c>
       <c r="R33" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="S33" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="T33" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="U33" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="V33" s="5" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="S33" s="22">
+        <v>0</v>
+      </c>
+      <c r="T33" s="22">
+        <v>0</v>
+      </c>
+      <c r="U33" s="22">
+        <v>0</v>
+      </c>
+      <c r="V33" s="22">
+        <v>0</v>
       </c>
       <c r="W33" s="12"/>
-      <c r="X33" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y33" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z33" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA33" s="5" t="s">
-        <v>12</v>
+      <c r="X33" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="22">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="22">
+        <v>0</v>
       </c>
       <c r="AB33" s="12"/>
-      <c r="AC33" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD33" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE33" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF33" s="5" t="s">
-        <v>12</v>
+      <c r="AC33" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD33" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE33" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF33" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="AG33" s="12"/>
     </row>
@@ -11468,7 +11474,7 @@
         <v>0.5</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I34" s="5">
         <v>5.6</v>
@@ -11498,45 +11504,45 @@
         <v>0.92</v>
       </c>
       <c r="R34" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="S34" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="T34" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="U34" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="V34" s="5" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="S34" s="22">
+        <v>0</v>
+      </c>
+      <c r="T34" s="22">
+        <v>0</v>
+      </c>
+      <c r="U34" s="22">
+        <v>0</v>
+      </c>
+      <c r="V34" s="22">
+        <v>0</v>
       </c>
       <c r="W34" s="12"/>
-      <c r="X34" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y34" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z34" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA34" s="5" t="s">
-        <v>12</v>
+      <c r="X34" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="22">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="22">
+        <v>0</v>
       </c>
       <c r="AB34" s="12"/>
-      <c r="AC34" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD34" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE34" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF34" s="5" t="s">
-        <v>12</v>
+      <c r="AC34" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD34" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE34" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF34" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="AG34" s="12"/>
     </row>
@@ -11559,7 +11565,7 @@
         <v>1.2</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I35" s="5">
         <v>5.5</v>
@@ -11589,45 +11595,45 @@
         <v>1.22</v>
       </c>
       <c r="R35" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="S35" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="T35" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="U35" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="V35" s="5" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="S35" s="22">
+        <v>0</v>
+      </c>
+      <c r="T35" s="22">
+        <v>0</v>
+      </c>
+      <c r="U35" s="22">
+        <v>0</v>
+      </c>
+      <c r="V35" s="22">
+        <v>0</v>
       </c>
       <c r="W35" s="12"/>
-      <c r="X35" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y35" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z35" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA35" s="5" t="s">
-        <v>12</v>
+      <c r="X35" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="22">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="22">
+        <v>0</v>
       </c>
       <c r="AB35" s="12"/>
-      <c r="AC35" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD35" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE35" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF35" s="5" t="s">
-        <v>12</v>
+      <c r="AC35" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD35" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE35" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF35" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="AG35" s="12"/>
     </row>
@@ -11650,7 +11656,7 @@
         <v>1.9</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I36" s="5">
         <v>4.4000000000000004</v>
@@ -11695,7 +11701,7 @@
         <v>0.2</v>
       </c>
       <c r="W36" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X36" s="5">
         <v>1.7</v>
@@ -11710,7 +11716,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="AB36" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC36" s="5">
         <v>0.89</v>
@@ -11725,7 +11731,7 @@
         <v>1.06</v>
       </c>
       <c r="AG36" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.2">
@@ -11792,7 +11798,7 @@
         <v>2.1</v>
       </c>
       <c r="W37" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X37" s="5">
         <v>1.1000000000000001</v>
@@ -11844,7 +11850,7 @@
         <v>2.7</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I38" s="5">
         <v>3.5</v>
@@ -11889,7 +11895,7 @@
         <v>2.6</v>
       </c>
       <c r="W38" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X38" s="5">
         <v>0.9</v>
@@ -11941,7 +11947,7 @@
         <v>2.5</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I39" s="5">
         <v>2.8</v>
@@ -11986,7 +11992,7 @@
         <v>2.7</v>
       </c>
       <c r="W39" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X39" s="5">
         <v>1</v>
@@ -12038,7 +12044,7 @@
         <v>5.3</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I40" s="5">
         <v>2.7</v>
@@ -12083,7 +12089,7 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="W40" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X40" s="5">
         <v>0.9</v>
@@ -12180,7 +12186,7 @@
         <v>7.5</v>
       </c>
       <c r="W41" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X41" s="5">
         <v>0.8</v>
@@ -12311,11 +12317,11 @@
       </c>
     </row>
     <row r="43" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A43" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="B43" s="22" t="s">
-        <v>32</v>
+      <c r="A43" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>31</v>
       </c>
       <c r="C43" s="5">
         <v>44</v>
@@ -12326,14 +12332,14 @@
       <c r="E43" s="5">
         <v>0.3</v>
       </c>
-      <c r="F43" s="5" t="s">
-        <v>12</v>
+      <c r="F43" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="G43" s="5">
         <v>0.4</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I43" s="5">
         <v>4.7</v>
@@ -12341,8 +12347,8 @@
       <c r="J43" s="5">
         <v>5.7</v>
       </c>
-      <c r="K43" s="5" t="s">
-        <v>12</v>
+      <c r="K43" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="L43" s="5">
         <v>6.1</v>
@@ -12356,8 +12362,8 @@
       <c r="O43" s="5">
         <v>0.83</v>
       </c>
-      <c r="P43" s="5" t="s">
-        <v>12</v>
+      <c r="P43" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="Q43" s="5">
         <v>0.91</v>
@@ -12365,43 +12371,43 @@
       <c r="R43" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="S43" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="T43" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="U43" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="V43" s="5" t="s">
-        <v>12</v>
+      <c r="S43" s="22">
+        <v>0</v>
+      </c>
+      <c r="T43" s="22">
+        <v>0</v>
+      </c>
+      <c r="U43" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="V43" s="22">
+        <v>0</v>
       </c>
       <c r="W43" s="12"/>
-      <c r="X43" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y43" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z43" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA43" s="5" t="s">
-        <v>12</v>
+      <c r="X43" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA43" s="22">
+        <v>0</v>
       </c>
       <c r="AB43" s="12"/>
-      <c r="AC43" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD43" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE43" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF43" s="5" t="s">
-        <v>12</v>
+      <c r="AC43" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD43" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE43" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF43" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="AG43" s="12"/>
     </row>
@@ -12417,14 +12423,14 @@
       <c r="E44" s="5">
         <v>0.8</v>
       </c>
-      <c r="F44" s="5" t="s">
-        <v>12</v>
+      <c r="F44" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="G44" s="5">
         <v>0.7</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I44" s="5">
         <v>4.3</v>
@@ -12432,8 +12438,8 @@
       <c r="J44" s="5">
         <v>5.3</v>
       </c>
-      <c r="K44" s="5" t="s">
-        <v>12</v>
+      <c r="K44" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="L44" s="5">
         <v>5.9</v>
@@ -12447,8 +12453,8 @@
       <c r="O44" s="5">
         <v>0.99</v>
       </c>
-      <c r="P44" s="5" t="s">
-        <v>12</v>
+      <c r="P44" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="Q44" s="5">
         <v>1.07</v>
@@ -12456,43 +12462,43 @@
       <c r="R44" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="S44" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="T44" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="U44" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="V44" s="5" t="s">
-        <v>12</v>
+      <c r="S44" s="22">
+        <v>0</v>
+      </c>
+      <c r="T44" s="22">
+        <v>0</v>
+      </c>
+      <c r="U44" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="V44" s="22">
+        <v>0</v>
       </c>
       <c r="W44" s="12"/>
-      <c r="X44" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y44" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z44" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA44" s="5" t="s">
-        <v>12</v>
+      <c r="X44" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA44" s="22">
+        <v>0</v>
       </c>
       <c r="AB44" s="12"/>
-      <c r="AC44" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD44" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE44" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF44" s="5" t="s">
-        <v>12</v>
+      <c r="AC44" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD44" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE44" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF44" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="AG44" s="12"/>
     </row>
@@ -12508,8 +12514,8 @@
       <c r="E45" s="11">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F45" s="5" t="s">
-        <v>12</v>
+      <c r="F45" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="G45" s="5">
         <v>1.5</v>
@@ -12523,8 +12529,8 @@
       <c r="J45" s="11">
         <v>4.9000000000000004</v>
       </c>
-      <c r="K45" s="5" t="s">
-        <v>12</v>
+      <c r="K45" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="L45" s="5">
         <v>5.2</v>
@@ -12538,8 +12544,8 @@
       <c r="O45" s="5">
         <v>1.03</v>
       </c>
-      <c r="P45" s="5" t="s">
-        <v>12</v>
+      <c r="P45" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="Q45" s="5">
         <v>1.1399999999999999</v>
@@ -12553,14 +12559,14 @@
       <c r="T45" s="5">
         <v>0.5</v>
       </c>
-      <c r="U45" s="5" t="s">
-        <v>12</v>
+      <c r="U45" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="V45" s="5">
         <v>0.2</v>
       </c>
       <c r="W45" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X45" s="5">
         <v>1.4</v>
@@ -12568,8 +12574,8 @@
       <c r="Y45" s="5">
         <v>1.7</v>
       </c>
-      <c r="Z45" s="5" t="s">
-        <v>12</v>
+      <c r="Z45" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="AA45" s="5">
         <v>2.1</v>
@@ -12584,7 +12590,7 @@
         <v>0.89</v>
       </c>
       <c r="AE45" s="5" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="AF45" s="5">
         <v>0.92</v>
@@ -12605,8 +12611,8 @@
       <c r="E46" s="5">
         <v>1.6</v>
       </c>
-      <c r="F46" s="5" t="s">
-        <v>12</v>
+      <c r="F46" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="G46" s="11">
         <v>1.4</v>
@@ -12620,8 +12626,8 @@
       <c r="J46" s="5">
         <v>4.4000000000000004</v>
       </c>
-      <c r="K46" s="5" t="s">
-        <v>12</v>
+      <c r="K46" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="L46" s="11">
         <v>4.9000000000000004</v>
@@ -12635,8 +12641,8 @@
       <c r="O46" s="5">
         <v>1</v>
       </c>
-      <c r="P46" s="5" t="s">
-        <v>12</v>
+      <c r="P46" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="Q46" s="5">
         <v>1.07</v>
@@ -12650,14 +12656,14 @@
       <c r="T46" s="5">
         <v>1.2</v>
       </c>
-      <c r="U46" s="5" t="s">
-        <v>12</v>
+      <c r="U46" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="V46" s="5">
         <v>0.8</v>
       </c>
       <c r="W46" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X46" s="5">
         <v>1.3</v>
@@ -12665,8 +12671,8 @@
       <c r="Y46" s="5">
         <v>1.6</v>
       </c>
-      <c r="Z46" s="5" t="s">
-        <v>12</v>
+      <c r="Z46" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="AA46" s="5">
         <v>1.7</v>
@@ -12681,7 +12687,7 @@
         <v>1.02</v>
       </c>
       <c r="AE46" s="5" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="AF46" s="5">
         <v>1</v>
@@ -12702,8 +12708,8 @@
       <c r="E47" s="11">
         <v>2.6</v>
       </c>
-      <c r="F47" s="5" t="s">
-        <v>12</v>
+      <c r="F47" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="G47" s="5">
         <v>3</v>
@@ -12717,8 +12723,8 @@
       <c r="J47" s="11">
         <v>4</v>
       </c>
-      <c r="K47" s="5" t="s">
-        <v>12</v>
+      <c r="K47" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="L47" s="5">
         <v>4.3</v>
@@ -12732,8 +12738,8 @@
       <c r="O47" s="5">
         <v>1.02</v>
       </c>
-      <c r="P47" s="5" t="s">
-        <v>12</v>
+      <c r="P47" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="Q47" s="5">
         <v>1.1499999999999999</v>
@@ -12747,14 +12753,14 @@
       <c r="T47" s="5">
         <v>2</v>
       </c>
-      <c r="U47" s="5" t="s">
-        <v>12</v>
+      <c r="U47" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="V47" s="5">
         <v>2.2000000000000002</v>
       </c>
       <c r="W47" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X47" s="5">
         <v>1.2</v>
@@ -12762,8 +12768,8 @@
       <c r="Y47" s="5">
         <v>1.4</v>
       </c>
-      <c r="Z47" s="5" t="s">
-        <v>12</v>
+      <c r="Z47" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="AA47" s="5">
         <v>1.5</v>
@@ -12778,7 +12784,7 @@
         <v>1.03</v>
       </c>
       <c r="AE47" s="5" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="AF47" s="5">
         <v>1.1399999999999999</v>
@@ -12799,8 +12805,8 @@
       <c r="E48" s="11">
         <v>2.7</v>
       </c>
-      <c r="F48" s="5" t="s">
-        <v>12</v>
+      <c r="F48" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="G48" s="5">
         <v>3.1</v>
@@ -12814,8 +12820,8 @@
       <c r="J48" s="11">
         <v>3.7</v>
       </c>
-      <c r="K48" s="5" t="s">
-        <v>12</v>
+      <c r="K48" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="L48" s="5">
         <v>4</v>
@@ -12829,8 +12835,8 @@
       <c r="O48" s="5">
         <v>0.94</v>
       </c>
-      <c r="P48" s="5" t="s">
-        <v>12</v>
+      <c r="P48" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="Q48" s="5">
         <v>1.0900000000000001</v>
@@ -12844,14 +12850,14 @@
       <c r="T48" s="5">
         <v>3.4</v>
       </c>
-      <c r="U48" s="5" t="s">
-        <v>12</v>
+      <c r="U48" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="V48" s="5">
         <v>2.6</v>
       </c>
       <c r="W48" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X48" s="5">
         <v>1.1000000000000001</v>
@@ -12859,8 +12865,8 @@
       <c r="Y48" s="5">
         <v>1.3</v>
       </c>
-      <c r="Z48" s="5" t="s">
-        <v>12</v>
+      <c r="Z48" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="AA48" s="5">
         <v>1.5</v>
@@ -12875,13 +12881,13 @@
         <v>1.05</v>
       </c>
       <c r="AE48" s="5" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="AF48" s="5">
         <v>1.1499999999999999</v>
       </c>
       <c r="AG48" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:33" x14ac:dyDescent="0.2">
@@ -12896,8 +12902,8 @@
       <c r="E49" s="11">
         <v>3</v>
       </c>
-      <c r="F49" s="5" t="s">
-        <v>12</v>
+      <c r="F49" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="G49" s="5">
         <v>3.3</v>
@@ -12911,8 +12917,8 @@
       <c r="J49" s="11">
         <v>3.6</v>
       </c>
-      <c r="K49" s="5" t="s">
-        <v>12</v>
+      <c r="K49" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="L49" s="5">
         <v>3.9</v>
@@ -12926,8 +12932,8 @@
       <c r="O49" s="5">
         <v>0.94</v>
       </c>
-      <c r="P49" s="5" t="s">
-        <v>12</v>
+      <c r="P49" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="Q49" s="5">
         <v>1.0900000000000001</v>
@@ -12941,8 +12947,8 @@
       <c r="T49" s="5">
         <v>4.5</v>
       </c>
-      <c r="U49" s="5" t="s">
-        <v>12</v>
+      <c r="U49" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="V49" s="11">
         <v>3.9</v>
@@ -12956,14 +12962,14 @@
       <c r="Y49" s="5">
         <v>1.3</v>
       </c>
-      <c r="Z49" s="5" t="s">
-        <v>12</v>
+      <c r="Z49" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="AA49" s="11">
         <v>1.3</v>
       </c>
       <c r="AB49" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC49" s="5">
         <v>0.81</v>
@@ -12972,13 +12978,13 @@
         <v>1.08</v>
       </c>
       <c r="AE49" s="5" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="AF49" s="5">
         <v>1.07</v>
       </c>
       <c r="AG49" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:33" x14ac:dyDescent="0.2">
@@ -12993,14 +12999,14 @@
       <c r="E50" s="5">
         <v>2.9</v>
       </c>
-      <c r="F50" s="5" t="s">
-        <v>12</v>
+      <c r="F50" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="G50" s="5">
         <v>4</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I50" s="5">
         <v>2.7</v>
@@ -13008,14 +13014,14 @@
       <c r="J50" s="5">
         <v>2.9</v>
       </c>
-      <c r="K50" s="5" t="s">
-        <v>12</v>
+      <c r="K50" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="L50" s="5">
         <v>3.6</v>
       </c>
       <c r="M50" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N50" s="5">
         <v>0.75</v>
@@ -13023,14 +13029,14 @@
       <c r="O50" s="5">
         <v>0.76</v>
       </c>
-      <c r="P50" s="5" t="s">
-        <v>12</v>
+      <c r="P50" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="Q50" s="5">
         <v>1.05</v>
       </c>
       <c r="R50" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S50" s="5">
         <v>5.5</v>
@@ -13038,14 +13044,14 @@
       <c r="T50" s="5">
         <v>5.5</v>
       </c>
-      <c r="U50" s="5" t="s">
-        <v>12</v>
+      <c r="U50" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="V50" s="5">
         <v>4.7</v>
       </c>
       <c r="W50" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X50" s="5">
         <v>1.1000000000000001</v>
@@ -13053,14 +13059,14 @@
       <c r="Y50" s="5">
         <v>1.4</v>
       </c>
-      <c r="Z50" s="5" t="s">
-        <v>12</v>
+      <c r="Z50" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="AA50" s="5">
         <v>1.5</v>
       </c>
       <c r="AB50" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC50" s="5">
         <v>0.94</v>
@@ -13069,13 +13075,13 @@
         <v>1.26</v>
       </c>
       <c r="AE50" s="5" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="AF50" s="5">
         <v>1.33</v>
       </c>
       <c r="AG50" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:33" x14ac:dyDescent="0.2">
@@ -13090,14 +13096,14 @@
       <c r="E51" s="5">
         <v>5</v>
       </c>
-      <c r="F51" s="5" t="s">
-        <v>12</v>
+      <c r="F51" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="G51" s="5">
         <v>3.4</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I51" s="5">
         <v>2.4</v>
@@ -13105,14 +13111,14 @@
       <c r="J51" s="5">
         <v>2.2999999999999998</v>
       </c>
-      <c r="K51" s="5" t="s">
-        <v>12</v>
+      <c r="K51" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="L51" s="5">
         <v>3.1</v>
       </c>
       <c r="M51" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N51" s="5">
         <v>0.62</v>
@@ -13120,14 +13126,14 @@
       <c r="O51" s="5">
         <v>0.72</v>
       </c>
-      <c r="P51" s="5" t="s">
-        <v>12</v>
+      <c r="P51" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="Q51" s="5">
         <v>0.87</v>
       </c>
       <c r="R51" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S51" s="5">
         <v>7.8</v>
@@ -13135,14 +13141,14 @@
       <c r="T51" s="5">
         <v>6.1</v>
       </c>
-      <c r="U51" s="5" t="s">
-        <v>12</v>
+      <c r="U51" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="V51" s="5">
         <v>6.8</v>
       </c>
       <c r="W51" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X51" s="5">
         <v>1.1000000000000001</v>
@@ -13150,8 +13156,8 @@
       <c r="Y51" s="5">
         <v>1.2</v>
       </c>
-      <c r="Z51" s="5" t="s">
-        <v>12</v>
+      <c r="Z51" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="AA51" s="5">
         <v>1.5</v>
@@ -13166,7 +13172,7 @@
         <v>1.17</v>
       </c>
       <c r="AE51" s="5" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="AF51" s="5">
         <v>1.3</v>
@@ -13188,7 +13194,7 @@
         <v>3.4</v>
       </c>
       <c r="F52" s="13" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="G52" s="13">
         <v>3.8</v>
@@ -13203,7 +13209,7 @@
         <v>3</v>
       </c>
       <c r="K52" s="13" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="L52" s="13">
         <v>3.3</v>
@@ -13218,7 +13224,7 @@
         <v>0.82</v>
       </c>
       <c r="P52" s="13" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="Q52" s="13">
         <v>0.93</v>
@@ -13233,7 +13239,7 @@
         <v>9.6</v>
       </c>
       <c r="U52" s="13" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="V52" s="13">
         <v>6.4</v>
@@ -13248,7 +13254,7 @@
         <v>1.2</v>
       </c>
       <c r="Z52" s="13" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="AA52" s="13">
         <v>1.7</v>
@@ -13263,7 +13269,7 @@
         <v>1</v>
       </c>
       <c r="AE52" s="13" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="AF52" s="13">
         <v>1.4</v>
@@ -13274,8 +13280,8 @@
     </row>
     <row r="53" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A53" s="12"/>
-      <c r="B53" s="22" t="s">
-        <v>33</v>
+      <c r="B53" s="20" t="s">
+        <v>32</v>
       </c>
       <c r="C53" s="5">
         <v>41</v>
@@ -13286,14 +13292,14 @@
       <c r="E53" s="5">
         <v>2.4</v>
       </c>
-      <c r="F53" s="5" t="s">
-        <v>12</v>
+      <c r="F53" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="G53" s="5">
         <v>0.3</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I53" s="5">
         <v>4.9000000000000004</v>
@@ -13301,8 +13307,8 @@
       <c r="J53" s="5">
         <v>2.4</v>
       </c>
-      <c r="K53" s="5" t="s">
-        <v>12</v>
+      <c r="K53" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="L53" s="5">
         <v>6.1</v>
@@ -13316,8 +13322,8 @@
       <c r="O53" s="5">
         <v>0.61</v>
       </c>
-      <c r="P53" s="5" t="s">
-        <v>12</v>
+      <c r="P53" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="Q53" s="5">
         <v>0.86</v>
@@ -13325,43 +13331,43 @@
       <c r="R53" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="S53" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="T53" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="U53" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="V53" s="5" t="s">
-        <v>12</v>
+      <c r="S53" s="22">
+        <v>0</v>
+      </c>
+      <c r="T53" s="22">
+        <v>0</v>
+      </c>
+      <c r="U53" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="V53" s="22">
+        <v>0</v>
       </c>
       <c r="W53" s="12"/>
-      <c r="X53" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y53" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z53" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA53" s="5" t="s">
-        <v>12</v>
+      <c r="X53" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA53" s="22">
+        <v>0</v>
       </c>
       <c r="AB53" s="12"/>
-      <c r="AC53" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD53" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE53" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF53" s="5" t="s">
-        <v>12</v>
+      <c r="AC53" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD53" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE53" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF53" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="AG53" s="12"/>
     </row>
@@ -13377,8 +13383,8 @@
       <c r="E54" s="5">
         <v>0.4</v>
       </c>
-      <c r="F54" s="5" t="s">
-        <v>12</v>
+      <c r="F54" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="G54" s="5">
         <v>0.9</v>
@@ -13392,14 +13398,14 @@
       <c r="J54" s="5">
         <v>5.7</v>
       </c>
-      <c r="K54" s="5" t="s">
-        <v>12</v>
+      <c r="K54" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="L54" s="5">
         <v>5.2</v>
       </c>
       <c r="M54" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N54" s="5">
         <v>0.77</v>
@@ -13407,8 +13413,8 @@
       <c r="O54" s="5">
         <v>0.89</v>
       </c>
-      <c r="P54" s="5" t="s">
-        <v>12</v>
+      <c r="P54" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="Q54" s="5">
         <v>1.01</v>
@@ -13422,8 +13428,8 @@
       <c r="T54" s="5">
         <v>0.1</v>
       </c>
-      <c r="U54" s="5" t="s">
-        <v>12</v>
+      <c r="U54" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="V54" s="5">
         <v>0.2</v>
@@ -13437,14 +13443,14 @@
       <c r="Y54" s="5">
         <v>2.4</v>
       </c>
-      <c r="Z54" s="5" t="s">
-        <v>12</v>
+      <c r="Z54" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="AA54" s="5">
         <v>2.4</v>
       </c>
       <c r="AB54" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC54" s="5">
         <v>0.83</v>
@@ -13453,13 +13459,13 @@
         <v>0.89</v>
       </c>
       <c r="AE54" s="5" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="AF54" s="5">
         <v>1.01</v>
       </c>
       <c r="AG54" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" spans="1:33" x14ac:dyDescent="0.2">
@@ -13474,14 +13480,14 @@
       <c r="E55" s="5">
         <v>0.9</v>
       </c>
-      <c r="F55" s="5" t="s">
-        <v>12</v>
+      <c r="F55" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="G55" s="5">
         <v>1.3</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I55" s="5">
         <v>3.4</v>
@@ -13489,8 +13495,8 @@
       <c r="J55" s="5">
         <v>5.4</v>
       </c>
-      <c r="K55" s="5" t="s">
-        <v>12</v>
+      <c r="K55" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="L55" s="5">
         <v>5.4</v>
@@ -13504,8 +13510,8 @@
       <c r="O55" s="5">
         <v>1.01</v>
       </c>
-      <c r="P55" s="5" t="s">
-        <v>12</v>
+      <c r="P55" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="Q55" s="5">
         <v>1.1499999999999999</v>
@@ -13519,14 +13525,14 @@
       <c r="T55" s="5">
         <v>0.1</v>
       </c>
-      <c r="U55" s="5" t="s">
-        <v>12</v>
+      <c r="U55" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="V55" s="5">
         <v>0.7</v>
       </c>
       <c r="W55" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X55" s="5">
         <v>1.5</v>
@@ -13534,14 +13540,14 @@
       <c r="Y55" s="5">
         <v>2.4</v>
       </c>
-      <c r="Z55" s="5" t="s">
-        <v>12</v>
+      <c r="Z55" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="AA55" s="5">
         <v>1.9</v>
       </c>
       <c r="AB55" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC55" s="5">
         <v>0.81</v>
@@ -13550,13 +13556,13 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="AE55" s="5" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="AF55" s="5">
         <v>1.06</v>
       </c>
       <c r="AG55" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" spans="1:33" x14ac:dyDescent="0.2">
@@ -13571,14 +13577,14 @@
       <c r="E56" s="5">
         <v>1.8</v>
       </c>
-      <c r="F56" s="5" t="s">
-        <v>12</v>
+      <c r="F56" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="G56" s="5">
         <v>1.7</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I56" s="5">
         <v>3.8</v>
@@ -13586,8 +13592,8 @@
       <c r="J56" s="5">
         <v>5.0999999999999996</v>
       </c>
-      <c r="K56" s="5" t="s">
-        <v>12</v>
+      <c r="K56" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="L56" s="5">
         <v>5.2</v>
@@ -13601,8 +13607,8 @@
       <c r="O56" s="5">
         <v>1.17</v>
       </c>
-      <c r="P56" s="5" t="s">
-        <v>12</v>
+      <c r="P56" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="Q56" s="5">
         <v>1.19</v>
@@ -13616,8 +13622,8 @@
       <c r="T56" s="5">
         <v>0.9</v>
       </c>
-      <c r="U56" s="5" t="s">
-        <v>12</v>
+      <c r="U56" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="V56" s="11">
         <v>1.1000000000000001</v>
@@ -13631,14 +13637,14 @@
       <c r="Y56" s="5">
         <v>1.9</v>
       </c>
-      <c r="Z56" s="5" t="s">
-        <v>12</v>
+      <c r="Z56" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="AA56" s="11">
         <v>1.7</v>
       </c>
       <c r="AB56" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC56" s="5">
         <v>0.74</v>
@@ -13647,7 +13653,7 @@
         <v>1.1399999999999999</v>
       </c>
       <c r="AE56" s="5" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="AF56" s="5">
         <v>1.06</v>
@@ -13668,14 +13674,14 @@
       <c r="E57" s="5">
         <v>2.2000000000000002</v>
       </c>
-      <c r="F57" s="5" t="s">
-        <v>12</v>
+      <c r="F57" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="G57" s="5">
         <v>3.1</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I57" s="5">
         <v>2.8</v>
@@ -13683,8 +13689,8 @@
       <c r="J57" s="5">
         <v>4.8</v>
       </c>
-      <c r="K57" s="5" t="s">
-        <v>12</v>
+      <c r="K57" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="L57" s="5">
         <v>4.9000000000000004</v>
@@ -13698,8 +13704,8 @@
       <c r="O57" s="5">
         <v>1.17</v>
       </c>
-      <c r="P57" s="5" t="s">
-        <v>12</v>
+      <c r="P57" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="Q57" s="5">
         <v>1.33</v>
@@ -13713,8 +13719,8 @@
       <c r="T57" s="5">
         <v>1.4</v>
       </c>
-      <c r="U57" s="5" t="s">
-        <v>12</v>
+      <c r="U57" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="V57" s="11">
         <v>2.2000000000000002</v>
@@ -13728,8 +13734,8 @@
       <c r="Y57" s="5">
         <v>1.7</v>
       </c>
-      <c r="Z57" s="5" t="s">
-        <v>12</v>
+      <c r="Z57" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="AA57" s="11">
         <v>1.5</v>
@@ -13744,7 +13750,7 @@
         <v>1.21</v>
       </c>
       <c r="AE57" s="5" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="AF57" s="5">
         <v>1.04</v>
@@ -13765,8 +13771,8 @@
       <c r="E58" s="11">
         <v>2.5</v>
       </c>
-      <c r="F58" s="5" t="s">
-        <v>12</v>
+      <c r="F58" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="G58" s="5">
         <v>2.8</v>
@@ -13780,8 +13786,8 @@
       <c r="J58" s="11">
         <v>4</v>
       </c>
-      <c r="K58" s="5" t="s">
-        <v>12</v>
+      <c r="K58" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="L58" s="5">
         <v>4.2</v>
@@ -13795,8 +13801,8 @@
       <c r="O58" s="5">
         <v>1.07</v>
       </c>
-      <c r="P58" s="5" t="s">
-        <v>12</v>
+      <c r="P58" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="Q58" s="5">
         <v>1.1000000000000001</v>
@@ -13810,14 +13816,14 @@
       <c r="T58" s="5">
         <v>2.2000000000000002</v>
       </c>
-      <c r="U58" s="5" t="s">
-        <v>12</v>
+      <c r="U58" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="V58" s="5">
         <v>3.3</v>
       </c>
       <c r="W58" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X58" s="5">
         <v>0.9</v>
@@ -13825,8 +13831,8 @@
       <c r="Y58" s="5">
         <v>1.4</v>
       </c>
-      <c r="Z58" s="5" t="s">
-        <v>12</v>
+      <c r="Z58" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="AA58" s="5">
         <v>1.4</v>
@@ -13841,7 +13847,7 @@
         <v>0.94</v>
       </c>
       <c r="AE58" s="5" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="AF58" s="5">
         <v>1.06</v>
@@ -13862,8 +13868,8 @@
       <c r="E59" s="5">
         <v>2.9</v>
       </c>
-      <c r="F59" s="5" t="s">
-        <v>12</v>
+      <c r="F59" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="G59" s="11">
         <v>3.3</v>
@@ -13877,8 +13883,8 @@
       <c r="J59" s="5">
         <v>3.6</v>
       </c>
-      <c r="K59" s="5" t="s">
-        <v>12</v>
+      <c r="K59" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="L59" s="11">
         <v>3.7</v>
@@ -13892,8 +13898,8 @@
       <c r="O59" s="5">
         <v>0.94</v>
       </c>
-      <c r="P59" s="5" t="s">
-        <v>12</v>
+      <c r="P59" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="Q59" s="5">
         <v>1.02</v>
@@ -13907,8 +13913,8 @@
       <c r="T59" s="11">
         <v>3.7</v>
       </c>
-      <c r="U59" s="5" t="s">
-        <v>12</v>
+      <c r="U59" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="V59" s="5">
         <v>4.0999999999999996</v>
@@ -13922,8 +13928,8 @@
       <c r="Y59" s="11">
         <v>1.3</v>
       </c>
-      <c r="Z59" s="5" t="s">
-        <v>12</v>
+      <c r="Z59" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="AA59" s="5">
         <v>1.3</v>
@@ -13938,7 +13944,7 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="AE59" s="5" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="AF59" s="5">
         <v>1.08</v>
@@ -13959,8 +13965,8 @@
       <c r="E60" s="5">
         <v>3.2</v>
       </c>
-      <c r="F60" s="5" t="s">
-        <v>12</v>
+      <c r="F60" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="G60" s="11">
         <v>4.4000000000000004</v>
@@ -13974,8 +13980,8 @@
       <c r="J60" s="5">
         <v>3.3</v>
       </c>
-      <c r="K60" s="5" t="s">
-        <v>12</v>
+      <c r="K60" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="L60" s="11">
         <v>3.4</v>
@@ -13989,8 +13995,8 @@
       <c r="O60" s="5">
         <v>0.91</v>
       </c>
-      <c r="P60" s="5" t="s">
-        <v>12</v>
+      <c r="P60" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="Q60" s="5">
         <v>0.99</v>
@@ -14004,8 +14010,8 @@
       <c r="T60" s="11">
         <v>4.8</v>
       </c>
-      <c r="U60" s="5" t="s">
-        <v>12</v>
+      <c r="U60" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="V60" s="5">
         <v>7.5</v>
@@ -14019,14 +14025,14 @@
       <c r="Y60" s="11">
         <v>1.2</v>
       </c>
-      <c r="Z60" s="5" t="s">
-        <v>12</v>
+      <c r="Z60" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="AA60" s="5">
         <v>1.4</v>
       </c>
       <c r="AB60" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC60" s="5">
         <v>0.67</v>
@@ -14035,7 +14041,7 @@
         <v>0.59</v>
       </c>
       <c r="AE60" s="5" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="AF60" s="5">
         <v>1.24</v>
@@ -14056,8 +14062,8 @@
       <c r="E61" s="5">
         <v>2.7</v>
       </c>
-      <c r="F61" s="5" t="s">
-        <v>12</v>
+      <c r="F61" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="G61" s="5">
         <v>3.4</v>
@@ -14071,8 +14077,8 @@
       <c r="J61" s="5">
         <v>2.1</v>
       </c>
-      <c r="K61" s="5" t="s">
-        <v>12</v>
+      <c r="K61" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="L61" s="5">
         <v>3.2</v>
@@ -14086,8 +14092,8 @@
       <c r="O61" s="5">
         <v>0.55000000000000004</v>
       </c>
-      <c r="P61" s="5" t="s">
-        <v>12</v>
+      <c r="P61" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="Q61" s="5">
         <v>0.89</v>
@@ -14101,14 +14107,14 @@
       <c r="T61" s="5">
         <v>7.1</v>
       </c>
-      <c r="U61" s="5" t="s">
-        <v>12</v>
+      <c r="U61" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="V61" s="5">
         <v>6.5</v>
       </c>
       <c r="W61" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X61" s="5">
         <v>0.7</v>
@@ -14116,8 +14122,8 @@
       <c r="Y61" s="5">
         <v>1.1000000000000001</v>
       </c>
-      <c r="Z61" s="5" t="s">
-        <v>12</v>
+      <c r="Z61" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="AA61" s="5">
         <v>1.6</v>
@@ -14132,7 +14138,7 @@
         <v>0.97</v>
       </c>
       <c r="AE61" s="5" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="AF61" s="5">
         <v>1.39</v>
@@ -14154,7 +14160,7 @@
         <v>3.1</v>
       </c>
       <c r="F62" s="13" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="G62" s="13">
         <v>3.1</v>
@@ -14169,7 +14175,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="K62" s="13" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="L62" s="13">
         <v>3</v>
@@ -14184,7 +14190,7 @@
         <v>0.61</v>
       </c>
       <c r="P62" s="13" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="Q62" s="13">
         <v>0.83</v>
@@ -14199,7 +14205,7 @@
         <v>8.5</v>
       </c>
       <c r="U62" s="13" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="V62" s="13">
         <v>7.5</v>
@@ -14214,7 +14220,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="Z62" s="13" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="AA62" s="13">
         <v>1.5</v>
@@ -14229,7 +14235,7 @@
         <v>1.39</v>
       </c>
       <c r="AE62" s="13" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="AF62" s="13">
         <v>0.88</v>
@@ -14240,8 +14246,8 @@
     </row>
     <row r="63" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A63" s="12"/>
-      <c r="B63" s="22" t="s">
-        <v>34</v>
+      <c r="B63" s="20" t="s">
+        <v>33</v>
       </c>
       <c r="C63" s="5">
         <v>40</v>
@@ -14259,7 +14265,7 @@
         <v>0.3</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I63" s="5">
         <v>4.9000000000000004</v>
@@ -14291,43 +14297,43 @@
       <c r="R63" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="S63" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="T63" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="U63" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="V63" s="5" t="s">
-        <v>12</v>
+      <c r="S63" s="22">
+        <v>0</v>
+      </c>
+      <c r="T63" s="22">
+        <v>0</v>
+      </c>
+      <c r="U63" s="22">
+        <v>0</v>
+      </c>
+      <c r="V63" s="22">
+        <v>0</v>
       </c>
       <c r="W63" s="12"/>
-      <c r="X63" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y63" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z63" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA63" s="5" t="s">
-        <v>12</v>
+      <c r="X63" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="22">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="22">
+        <v>0</v>
       </c>
       <c r="AB63" s="12"/>
-      <c r="AC63" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD63" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE63" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF63" s="5" t="s">
-        <v>12</v>
+      <c r="AC63" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD63" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE63" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF63" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="AG63" s="12"/>
     </row>
@@ -14350,7 +14356,7 @@
         <v>0.5</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I64" s="5">
         <v>4.5</v>
@@ -14380,7 +14386,7 @@
         <v>0.91</v>
       </c>
       <c r="R64" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S64" s="5">
         <v>0.1</v>
@@ -14395,7 +14401,7 @@
         <v>0</v>
       </c>
       <c r="W64" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X64" s="5">
         <v>1.9</v>
@@ -14492,7 +14498,7 @@
         <v>0.3</v>
       </c>
       <c r="W65" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X65" s="5">
         <v>1.8</v>
@@ -14544,7 +14550,7 @@
         <v>1.5</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I66" s="5">
         <v>4.3</v>
@@ -14783,7 +14789,7 @@
         <v>3.6</v>
       </c>
       <c r="W68" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X68" s="5">
         <v>0.8</v>
@@ -14880,7 +14886,7 @@
         <v>5.5</v>
       </c>
       <c r="W69" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X69" s="5">
         <v>0.8</v>
@@ -14977,7 +14983,7 @@
         <v>6.4</v>
       </c>
       <c r="W70" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X70" s="5">
         <v>0.9</v>
@@ -15029,7 +15035,7 @@
         <v>2.6</v>
       </c>
       <c r="H71" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I71" s="13">
         <v>2</v>
@@ -15089,7 +15095,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="AB71" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC71" s="13">
         <v>0.85</v>
@@ -15104,13 +15110,13 @@
         <v>0.97</v>
       </c>
       <c r="AG71" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A72" s="12"/>
-      <c r="B72" s="22" t="s">
-        <v>35</v>
+      <c r="B72" s="20" t="s">
+        <v>34</v>
       </c>
       <c r="C72" s="5">
         <v>39</v>
@@ -15128,7 +15134,7 @@
         <v>0.3</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I72" s="5">
         <v>5.0999999999999996</v>
@@ -15160,43 +15166,43 @@
       <c r="R72" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="S72" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="T72" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="U72" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="V72" s="5" t="s">
-        <v>12</v>
+      <c r="S72" s="22">
+        <v>0</v>
+      </c>
+      <c r="T72" s="22">
+        <v>0</v>
+      </c>
+      <c r="U72" s="22">
+        <v>0</v>
+      </c>
+      <c r="V72" s="22">
+        <v>0</v>
       </c>
       <c r="W72" s="12"/>
-      <c r="X72" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y72" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z72" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA72" s="5" t="s">
-        <v>12</v>
+      <c r="X72" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y72" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z72" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA72" s="5">
+        <v>0</v>
       </c>
       <c r="AB72" s="12"/>
-      <c r="AC72" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD72" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE72" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF72" s="5" t="s">
-        <v>12</v>
+      <c r="AC72" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD72" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE72" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF72" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="AG72" s="12"/>
     </row>
@@ -15249,7 +15255,7 @@
         <v>0.99</v>
       </c>
       <c r="R73" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S73" s="5">
         <v>0.1</v>
@@ -15264,7 +15270,7 @@
         <v>0</v>
       </c>
       <c r="W73" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X73" s="5">
         <v>2</v>
@@ -15316,7 +15322,7 @@
         <v>1.2</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I74" s="5">
         <v>4.7</v>
@@ -15361,7 +15367,7 @@
         <v>0.5</v>
       </c>
       <c r="W74" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X74" s="5">
         <v>1.5</v>
@@ -15376,7 +15382,7 @@
         <v>2.1</v>
       </c>
       <c r="AB74" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC74" s="5">
         <v>0.79</v>
@@ -15413,7 +15419,7 @@
         <v>1.8</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I75" s="5">
         <v>3.9</v>
@@ -15510,7 +15516,7 @@
         <v>2.6</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I76" s="5">
         <v>3.7</v>
@@ -15607,7 +15613,7 @@
         <v>3.9</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I77" s="5">
         <v>3.6</v>
@@ -15622,7 +15628,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="M77" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N77" s="5">
         <v>0.95</v>
@@ -15637,7 +15643,7 @@
         <v>1.33</v>
       </c>
       <c r="R77" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S77" s="5">
         <v>4.9000000000000004</v>
@@ -15652,7 +15658,7 @@
         <v>4.5</v>
       </c>
       <c r="W77" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X77" s="5">
         <v>1</v>
@@ -15667,7 +15673,7 @@
         <v>1.3</v>
       </c>
       <c r="AB77" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC77" s="5">
         <v>0.91</v>
@@ -15682,7 +15688,7 @@
         <v>1.32</v>
       </c>
       <c r="AG77" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" spans="1:33" x14ac:dyDescent="0.2">
@@ -15704,7 +15710,7 @@
         <v>2.7</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I78" s="5">
         <v>2.8</v>
@@ -15801,7 +15807,7 @@
         <v>4</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I79" s="5">
         <v>2.2000000000000002</v>
@@ -15846,7 +15852,7 @@
         <v>7.7</v>
       </c>
       <c r="W79" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X79" s="5">
         <v>0.7</v>
@@ -15861,7 +15867,7 @@
         <v>1.2</v>
       </c>
       <c r="AB79" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC79" s="5">
         <v>0.7</v>
@@ -15876,7 +15882,7 @@
         <v>1.17</v>
       </c>
       <c r="AG79" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" spans="1:33" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -15898,7 +15904,7 @@
         <v>3.2</v>
       </c>
       <c r="H80" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I80" s="13">
         <v>2.2999999999999998</v>
@@ -15943,7 +15949,7 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="W80" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X80" s="13">
         <v>1</v>
@@ -15978,22 +15984,22 @@
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="X1:AA1"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="I2:L2"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="S2:U2"/>
     <mergeCell ref="X2:AA2"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="S1:U1"/>
-    <mergeCell ref="X1:AA1"/>
-    <mergeCell ref="AC1:AF1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
